--- a/data/таблицы.xlsx
+++ b/data/таблицы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12480"/>
+    <workbookView windowWidth="28785" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="65">
   <si>
     <t>u</t>
   </si>
@@ -155,6 +155,69 @@
     </r>
   </si>
   <si>
+    <t>Угол наклона, °</t>
+  </si>
+  <si>
+    <t>Площадь панели, м²</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Мощность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Вт*ч/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>м²</t>
+    </r>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
     <t>y_</t>
   </si>
   <si>
@@ -187,6 +250,57 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Месяц</t>
+  </si>
+  <si>
+    <t>x2_origin</t>
+  </si>
+  <si>
+    <t>y_specific</t>
+  </si>
+  <si>
+    <t>Авг</t>
+  </si>
+  <si>
+    <t>Апр</t>
+  </si>
+  <si>
+    <t>Сент</t>
+  </si>
+  <si>
+    <t>Окт</t>
+  </si>
+  <si>
+    <t>Нояб</t>
+  </si>
+  <si>
+    <t>Янв</t>
+  </si>
+  <si>
+    <t>Фев</t>
+  </si>
+  <si>
+    <t>Дек</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +312,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +481,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -564,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -582,6 +703,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -711,7 +869,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,34 +881,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,6 +1023,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1399,10 +1578,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P38"/>
+  <dimension ref="C3:AB278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:P38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E265" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39:AA278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1415,6 +1594,17 @@
     <col min="13" max="13" width="10.4285714285714"/>
     <col min="14" max="14" width="12"/>
     <col min="16" max="16" width="13.5714285714286"/>
+    <col min="18" max="18" width="10.5904761904762" customWidth="1"/>
+    <col min="19" max="19" width="14.2761904761905" customWidth="1"/>
+    <col min="20" max="20" width="13.2666666666667" customWidth="1"/>
+    <col min="21" max="21" width="14.6190476190476" customWidth="1"/>
+    <col min="22" max="22" width="11.9238095238095" customWidth="1"/>
+    <col min="23" max="23" width="12.7619047619048" customWidth="1"/>
+    <col min="24" max="24" width="13.7714285714286" customWidth="1"/>
+    <col min="25" max="25" width="11.247619047619" customWidth="1"/>
+    <col min="26" max="26" width="12"/>
+    <col min="27" max="27" width="11.5904761904762" customWidth="1"/>
+    <col min="31" max="31" width="11.2571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="18.75" spans="3:14">
@@ -1880,7 +2070,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" ht="18.75" spans="3:28">
       <c r="C19" s="5">
         <v>3</v>
       </c>
@@ -1908,8 +2098,39 @@
       <c r="K19" s="6">
         <v>2034</v>
       </c>
-    </row>
-    <row r="20" spans="3:11">
+      <c r="R19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="1">
+        <v>30</v>
+      </c>
+      <c r="U19" s="1">
+        <v>45</v>
+      </c>
+      <c r="V19" s="1">
+        <v>60</v>
+      </c>
+      <c r="W19" s="1">
+        <v>30</v>
+      </c>
+      <c r="X19" s="1">
+        <v>45</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="3:28">
       <c r="C20" s="5">
         <v>4</v>
       </c>
@@ -1937,8 +2158,27 @@
       <c r="K20" s="6">
         <v>1300</v>
       </c>
-    </row>
-    <row r="21" spans="3:11">
+      <c r="R20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" s="11"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="12"/>
+    </row>
+    <row r="21" ht="18.75" spans="3:28">
       <c r="C21" s="5">
         <v>5</v>
       </c>
@@ -1966,8 +2206,41 @@
       <c r="K21" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="3:11">
+      <c r="R21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="1">
+        <v>60</v>
+      </c>
+      <c r="U21" s="1">
+        <v>60</v>
+      </c>
+      <c r="V21" s="1">
+        <v>60</v>
+      </c>
+      <c r="W21" s="1">
+        <v>90</v>
+      </c>
+      <c r="X21" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>110</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>190</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>200</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="3:28">
       <c r="C22" s="5">
         <v>6</v>
       </c>
@@ -1995,8 +2268,39 @@
       <c r="K22" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="3:11">
+      <c r="R22" s="14"/>
+      <c r="S22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="1">
+        <v>90</v>
+      </c>
+      <c r="U22" s="1">
+        <v>90</v>
+      </c>
+      <c r="V22" s="1">
+        <v>90</v>
+      </c>
+      <c r="W22" s="1">
+        <v>150</v>
+      </c>
+      <c r="X22" s="1">
+        <v>150</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>150</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>290</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>310</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="3:28">
       <c r="C23" s="5">
         <v>7</v>
       </c>
@@ -2024,8 +2328,39 @@
       <c r="K23" s="6">
         <v>909</v>
       </c>
-    </row>
-    <row r="24" spans="3:11">
+      <c r="R23" s="14"/>
+      <c r="S23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="1">
+        <v>110</v>
+      </c>
+      <c r="U23" s="1">
+        <v>110</v>
+      </c>
+      <c r="V23" s="1">
+        <v>110</v>
+      </c>
+      <c r="W23" s="1">
+        <v>180</v>
+      </c>
+      <c r="X23" s="1">
+        <v>190</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>180</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>370</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>370</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="3:28">
       <c r="C24" s="5">
         <v>8</v>
       </c>
@@ -2053,8 +2388,105 @@
       <c r="K24" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" ht="18.75" spans="3:16">
+      <c r="R24" s="14"/>
+      <c r="S24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="1">
+        <v>150</v>
+      </c>
+      <c r="U24" s="1">
+        <v>150</v>
+      </c>
+      <c r="V24" s="1">
+        <v>130</v>
+      </c>
+      <c r="W24" s="1">
+        <v>260</v>
+      </c>
+      <c r="X24" s="1">
+        <v>240</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>220</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>510</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>490</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" spans="18:28">
+      <c r="R25" s="14"/>
+      <c r="S25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="1">
+        <v>170</v>
+      </c>
+      <c r="U25" s="1">
+        <v>160</v>
+      </c>
+      <c r="V25" s="1">
+        <v>140</v>
+      </c>
+      <c r="W25" s="1">
+        <v>290</v>
+      </c>
+      <c r="X25" s="1">
+        <v>270</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>240</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>580</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>540</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" spans="18:28">
+      <c r="R26" s="14"/>
+      <c r="S26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="1">
+        <v>190</v>
+      </c>
+      <c r="U26" s="1">
+        <v>170</v>
+      </c>
+      <c r="V26" s="1">
+        <v>150</v>
+      </c>
+      <c r="W26" s="1">
+        <v>310</v>
+      </c>
+      <c r="X26" s="1">
+        <v>280</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>250</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>630</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>570</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="3:28">
       <c r="C27" s="7" t="s">
         <v>0</v>
       </c>
@@ -2062,40 +2494,71 @@
         <v>14</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" spans="3:16">
+        <v>47</v>
+      </c>
+      <c r="R27" s="14"/>
+      <c r="S27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" s="1">
+        <v>190</v>
+      </c>
+      <c r="U27" s="1">
+        <v>170</v>
+      </c>
+      <c r="V27" s="1">
+        <v>150</v>
+      </c>
+      <c r="W27" s="1">
+        <v>320</v>
+      </c>
+      <c r="X27" s="1">
+        <v>290</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>250</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>640</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>580</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" spans="3:28">
       <c r="C28" s="8">
         <v>1</v>
       </c>
@@ -2135,8 +2598,39 @@
       <c r="P28" s="2">
         <v>239.77</v>
       </c>
-    </row>
-    <row r="29" ht="18.75" spans="3:16">
+      <c r="R28" s="14"/>
+      <c r="S28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28" s="1">
+        <v>180</v>
+      </c>
+      <c r="U28" s="1">
+        <v>170</v>
+      </c>
+      <c r="V28" s="1">
+        <v>160</v>
+      </c>
+      <c r="W28" s="1">
+        <v>310</v>
+      </c>
+      <c r="X28" s="1">
+        <v>290</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>260</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>610</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>580</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" spans="3:28">
       <c r="C29" s="8">
         <v>2</v>
       </c>
@@ -2176,8 +2670,39 @@
       <c r="P29" s="2">
         <v>902.34</v>
       </c>
-    </row>
-    <row r="30" ht="18.75" spans="3:16">
+      <c r="R29" s="14"/>
+      <c r="S29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="1">
+        <v>150</v>
+      </c>
+      <c r="U29" s="1">
+        <v>150</v>
+      </c>
+      <c r="V29" s="1">
+        <v>140</v>
+      </c>
+      <c r="W29" s="1">
+        <v>250</v>
+      </c>
+      <c r="X29" s="1">
+        <v>250</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>230</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>500</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>500</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" spans="3:28">
       <c r="C30" s="8">
         <v>3</v>
       </c>
@@ -2217,8 +2742,39 @@
       <c r="P30" s="2">
         <v>1580.63</v>
       </c>
-    </row>
-    <row r="31" ht="18.75" spans="3:16">
+      <c r="R30" s="14"/>
+      <c r="S30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="1">
+        <v>110</v>
+      </c>
+      <c r="U30" s="1">
+        <v>110</v>
+      </c>
+      <c r="V30" s="1">
+        <v>110</v>
+      </c>
+      <c r="W30" s="1">
+        <v>180</v>
+      </c>
+      <c r="X30" s="1">
+        <v>180</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>180</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>350</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>370</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" spans="3:28">
       <c r="C31" s="8">
         <v>4</v>
       </c>
@@ -2258,8 +2814,39 @@
       <c r="P31" s="2">
         <v>2298.21</v>
       </c>
-    </row>
-    <row r="32" ht="18.75" spans="3:16">
+      <c r="R31" s="14"/>
+      <c r="S31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="1">
+        <v>70</v>
+      </c>
+      <c r="U31" s="1">
+        <v>80</v>
+      </c>
+      <c r="V31" s="1">
+        <v>80</v>
+      </c>
+      <c r="W31" s="1">
+        <v>120</v>
+      </c>
+      <c r="X31" s="1">
+        <v>130</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>130</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>240</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>260</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" spans="3:28">
       <c r="C32" s="8">
         <v>5</v>
       </c>
@@ -2298,6 +2885,37 @@
       </c>
       <c r="P32" s="2">
         <v>3079.56</v>
+      </c>
+      <c r="R32" s="14"/>
+      <c r="S32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T32" s="1">
+        <v>50</v>
+      </c>
+      <c r="U32" s="1">
+        <v>60</v>
+      </c>
+      <c r="V32" s="1">
+        <v>60</v>
+      </c>
+      <c r="W32" s="1">
+        <v>90</v>
+      </c>
+      <c r="X32" s="1">
+        <v>90</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>170</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>190</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="33" ht="18.75" spans="3:16">
@@ -2501,11 +3119,7696 @@
         <v>10827.89</v>
       </c>
     </row>
+    <row r="39" ht="37.5" spans="18:27">
+      <c r="R39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA39" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" spans="18:27">
+      <c r="R40" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="16">
+        <v>8.11</v>
+      </c>
+      <c r="T40" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U40" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V40" s="16">
+        <v>30</v>
+      </c>
+      <c r="W40" s="16">
+        <v>3.04</v>
+      </c>
+      <c r="X40" s="16">
+        <v>1103.06</v>
+      </c>
+      <c r="Y40" s="16">
+        <v>-0.96</v>
+      </c>
+      <c r="Z40" s="16">
+        <v>119.03</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>119.03</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" spans="18:27">
+      <c r="R41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="16">
+        <v>8.11</v>
+      </c>
+      <c r="T41" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U41" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V41" s="16">
+        <v>30</v>
+      </c>
+      <c r="W41" s="16">
+        <v>18.05</v>
+      </c>
+      <c r="X41" s="16">
+        <v>1103.06</v>
+      </c>
+      <c r="Y41" s="16">
+        <v>-0.96</v>
+      </c>
+      <c r="Z41" s="16">
+        <v>295.52</v>
+      </c>
+      <c r="AA41" s="16">
+        <v>295.52</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" spans="18:27">
+      <c r="R42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" s="16">
+        <v>8.11</v>
+      </c>
+      <c r="T42" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U42" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V42" s="16">
+        <v>30</v>
+      </c>
+      <c r="W42" s="16">
+        <v>33.05</v>
+      </c>
+      <c r="X42" s="16">
+        <v>1103.06</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>-0.96</v>
+      </c>
+      <c r="Z42" s="16">
+        <v>472.01</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>472.01</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" spans="18:27">
+      <c r="R43" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S43" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T43" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U43" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V43" s="16">
+        <v>30</v>
+      </c>
+      <c r="W43" s="16">
+        <v>3.04</v>
+      </c>
+      <c r="X43" s="16">
+        <v>1059.92</v>
+      </c>
+      <c r="Y43" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z43" s="16">
+        <v>117.64</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>117.64</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" spans="18:27">
+      <c r="R44" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S44" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T44" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="U44" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V44" s="16">
+        <v>30</v>
+      </c>
+      <c r="W44" s="16">
+        <v>102.45</v>
+      </c>
+      <c r="X44" s="16">
+        <v>1060.2</v>
+      </c>
+      <c r="Y44" s="16">
+        <v>-0.82</v>
+      </c>
+      <c r="Z44" s="16">
+        <v>1241.37</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>197.04</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" spans="18:27">
+      <c r="R45" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S45" s="16">
+        <v>7.76</v>
+      </c>
+      <c r="T45" s="16">
+        <v>2.32</v>
+      </c>
+      <c r="U45" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V45" s="16">
+        <v>30</v>
+      </c>
+      <c r="W45" s="16">
+        <v>201.89</v>
+      </c>
+      <c r="X45" s="16">
+        <v>1069.81</v>
+      </c>
+      <c r="Y45" s="16">
+        <v>-0.85</v>
+      </c>
+      <c r="Z45" s="16">
+        <v>2386.08</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" spans="18:27">
+      <c r="R46" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S46" s="16">
+        <v>7.96</v>
+      </c>
+      <c r="T46" s="16">
+        <v>3.39</v>
+      </c>
+      <c r="U46" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V46" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W46" s="16">
+        <v>302.23</v>
+      </c>
+      <c r="X46" s="16">
+        <v>1088.75</v>
+      </c>
+      <c r="Y46" s="16">
+        <v>-0.91</v>
+      </c>
+      <c r="Z46" s="16">
+        <v>3591.6</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>211.89</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" spans="18:27">
+      <c r="R47" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S47" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T47" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U47" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V47" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W47" s="16">
+        <v>18.05</v>
+      </c>
+      <c r="X47" s="16">
+        <v>1059.92</v>
+      </c>
+      <c r="Y47" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z47" s="16">
+        <v>287.23</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>287.23</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" spans="18:27">
+      <c r="R48" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S48" s="16">
+        <v>7.67</v>
+      </c>
+      <c r="T48" s="16">
+        <v>1.42</v>
+      </c>
+      <c r="U48" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V48" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W48" s="16">
+        <v>117.46</v>
+      </c>
+      <c r="X48" s="16">
+        <v>1061.61</v>
+      </c>
+      <c r="Y48" s="16">
+        <v>-0.82</v>
+      </c>
+      <c r="Z48" s="16">
+        <v>1412.77</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>358.17</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" spans="18:27">
+      <c r="R49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S49" s="16">
+        <v>7.79</v>
+      </c>
+      <c r="T49" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="U49" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V49" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W49" s="16">
+        <v>217.03</v>
+      </c>
+      <c r="X49" s="16">
+        <v>1072.63</v>
+      </c>
+      <c r="Y49" s="16">
+        <v>-0.86</v>
+      </c>
+      <c r="Z49" s="16">
+        <v>2565.28</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>372.38</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" spans="18:27">
+      <c r="R50" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S50" s="16">
+        <v>8</v>
+      </c>
+      <c r="T50" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="U50" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V50" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W50" s="16">
+        <v>317.64</v>
+      </c>
+      <c r="X50" s="16">
+        <v>1092.98</v>
+      </c>
+      <c r="Y50" s="16">
+        <v>-0.92</v>
+      </c>
+      <c r="Z50" s="16">
+        <v>3784.74</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>383.8</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" spans="18:27">
+      <c r="R51" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S51" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T51" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U51" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V51" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W51" s="16">
+        <v>33.06</v>
+      </c>
+      <c r="X51" s="16">
+        <v>1059.92</v>
+      </c>
+      <c r="Y51" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z51" s="16">
+        <v>456.82</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>456.82</v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" spans="18:27">
+      <c r="R52" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S52" s="16">
+        <v>7.68</v>
+      </c>
+      <c r="T52" s="16">
+        <v>1.58</v>
+      </c>
+      <c r="U52" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V52" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W52" s="16">
+        <v>132.47</v>
+      </c>
+      <c r="X52" s="16">
+        <v>1063.02</v>
+      </c>
+      <c r="Y52" s="16">
+        <v>-0.82</v>
+      </c>
+      <c r="Z52" s="16">
+        <v>1584.62</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>521.52</v>
+      </c>
+    </row>
+    <row r="53" ht="18.75" spans="18:27">
+      <c r="R53" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S53" s="16">
+        <v>7.82</v>
+      </c>
+      <c r="T53" s="16">
+        <v>2.64</v>
+      </c>
+      <c r="U53" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V53" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W53" s="16">
+        <v>232.17</v>
+      </c>
+      <c r="X53" s="16">
+        <v>1075.44</v>
+      </c>
+      <c r="Y53" s="16">
+        <v>-0.87</v>
+      </c>
+      <c r="Z53" s="16">
+        <v>2745.38</v>
+      </c>
+      <c r="AA53" s="16">
+        <v>540.76</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" spans="18:27">
+      <c r="R54" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" s="16">
+        <v>8.05</v>
+      </c>
+      <c r="T54" s="16">
+        <v>3.72</v>
+      </c>
+      <c r="U54" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V54" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W54" s="16">
+        <v>333.04</v>
+      </c>
+      <c r="X54" s="16">
+        <v>1097.22</v>
+      </c>
+      <c r="Y54" s="16">
+        <v>-0.94</v>
+      </c>
+      <c r="Z54" s="16">
+        <v>3979.28</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>556.24</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" spans="18:27">
+      <c r="R55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S55" s="16">
+        <v>6.86</v>
+      </c>
+      <c r="T55" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U55" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V55" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W55" s="16">
+        <v>3.04</v>
+      </c>
+      <c r="X55" s="16">
+        <v>985.82</v>
+      </c>
+      <c r="Y55" s="16">
+        <v>-0.57</v>
+      </c>
+      <c r="Z55" s="16">
+        <v>115.24</v>
+      </c>
+      <c r="AA55" s="16">
+        <v>115.24</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" spans="18:27">
+      <c r="R56" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56" s="16">
+        <v>6.86</v>
+      </c>
+      <c r="T56" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="U56" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V56" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W56" s="16">
+        <v>95.51</v>
+      </c>
+      <c r="X56" s="16">
+        <v>986.11</v>
+      </c>
+      <c r="Y56" s="16">
+        <v>-0.57</v>
+      </c>
+      <c r="Z56" s="16">
+        <v>1087.37</v>
+      </c>
+      <c r="AA56" s="16">
+        <v>182.75</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" spans="18:27">
+      <c r="R57" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S57" s="16">
+        <v>6.96</v>
+      </c>
+      <c r="T57" s="16">
+        <v>2.17</v>
+      </c>
+      <c r="U57" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V57" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W57" s="16">
+        <v>188</v>
+      </c>
+      <c r="X57" s="16">
+        <v>995.06</v>
+      </c>
+      <c r="Y57" s="16">
+        <v>-0.6</v>
+      </c>
+      <c r="Z57" s="16">
+        <v>2077.73</v>
+      </c>
+      <c r="AA57" s="16">
+        <v>191.5</v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" spans="18:27">
+      <c r="R58" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58" s="16">
+        <v>7.15</v>
+      </c>
+      <c r="T58" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="U58" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V58" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="W58" s="16">
+        <v>281.33</v>
+      </c>
+      <c r="X58" s="16">
+        <v>1012.7</v>
+      </c>
+      <c r="Y58" s="16">
+        <v>-0.66</v>
+      </c>
+      <c r="Z58" s="16">
+        <v>3120.77</v>
+      </c>
+      <c r="AA58" s="16">
+        <v>196.89</v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" spans="18:27">
+      <c r="R59" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59" s="16">
+        <v>7.43</v>
+      </c>
+      <c r="T59" s="16">
+        <v>4.18</v>
+      </c>
+      <c r="U59" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V59" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W59" s="16">
+        <v>376.31</v>
+      </c>
+      <c r="X59" s="16">
+        <v>1039.08</v>
+      </c>
+      <c r="Y59" s="16">
+        <v>-0.75</v>
+      </c>
+      <c r="Z59" s="16">
+        <v>4252.19</v>
+      </c>
+      <c r="AA59" s="16">
+        <v>203.45</v>
+      </c>
+    </row>
+    <row r="60" ht="18.75" spans="18:27">
+      <c r="R60" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S60" s="16">
+        <v>7.8</v>
+      </c>
+      <c r="T60" s="16">
+        <v>5.22</v>
+      </c>
+      <c r="U60" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V60" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W60" s="16">
+        <v>473.77</v>
+      </c>
+      <c r="X60" s="16">
+        <v>1074.38</v>
+      </c>
+      <c r="Y60" s="16">
+        <v>-0.86</v>
+      </c>
+      <c r="Z60" s="16">
+        <v>5510.17</v>
+      </c>
+      <c r="AA60" s="16">
+        <v>211.12</v>
+      </c>
+    </row>
+    <row r="61" ht="18.75" spans="18:27">
+      <c r="R61" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S61" s="16">
+        <v>6.86</v>
+      </c>
+      <c r="T61" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U61" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V61" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W61" s="16">
+        <v>18.05</v>
+      </c>
+      <c r="X61" s="16">
+        <v>985.82</v>
+      </c>
+      <c r="Y61" s="16">
+        <v>-0.57</v>
+      </c>
+      <c r="Z61" s="16">
+        <v>272.98</v>
+      </c>
+      <c r="AA61" s="16">
+        <v>272.98</v>
+      </c>
+    </row>
+    <row r="62" ht="18.75" spans="18:27">
+      <c r="R62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S62" s="16">
+        <v>6.88</v>
+      </c>
+      <c r="T62" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="U62" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V62" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W62" s="16">
+        <v>110.51</v>
+      </c>
+      <c r="X62" s="16">
+        <v>987.51</v>
+      </c>
+      <c r="Y62" s="16">
+        <v>-0.58</v>
+      </c>
+      <c r="Z62" s="16">
+        <v>1246.81</v>
+      </c>
+      <c r="AA62" s="16">
+        <v>332.48</v>
+      </c>
+    </row>
+    <row r="63" ht="18.75" spans="18:27">
+      <c r="R63" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S63" s="16">
+        <v>6.99</v>
+      </c>
+      <c r="T63" s="16">
+        <v>2.33</v>
+      </c>
+      <c r="U63" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V63" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W63" s="16">
+        <v>203.14</v>
+      </c>
+      <c r="X63" s="16">
+        <v>997.88</v>
+      </c>
+      <c r="Y63" s="16">
+        <v>-0.61</v>
+      </c>
+      <c r="Z63" s="16">
+        <v>2244.44</v>
+      </c>
+      <c r="AA63" s="16">
+        <v>346.78</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" spans="18:27">
+      <c r="R64" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S64" s="16">
+        <v>7.19</v>
+      </c>
+      <c r="T64" s="16">
+        <v>3.33</v>
+      </c>
+      <c r="U64" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V64" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W64" s="16">
+        <v>296.73</v>
+      </c>
+      <c r="X64" s="16">
+        <v>1016.93</v>
+      </c>
+      <c r="Y64" s="16">
+        <v>-0.67</v>
+      </c>
+      <c r="Z64" s="16">
+        <v>3300.48</v>
+      </c>
+      <c r="AA64" s="16">
+        <v>356.81</v>
+      </c>
+    </row>
+    <row r="65" ht="18.75" spans="18:27">
+      <c r="R65" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S65" s="16">
+        <v>7.49</v>
+      </c>
+      <c r="T65" s="16">
+        <v>4.35</v>
+      </c>
+      <c r="U65" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V65" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W65" s="16">
+        <v>392.11</v>
+      </c>
+      <c r="X65" s="16">
+        <v>1044.76</v>
+      </c>
+      <c r="Y65" s="16">
+        <v>-0.76</v>
+      </c>
+      <c r="Z65" s="16">
+        <v>4450.98</v>
+      </c>
+      <c r="AA65" s="16">
+        <v>368.36</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" spans="18:27">
+      <c r="R66" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S66" s="16">
+        <v>7.88</v>
+      </c>
+      <c r="T66" s="16">
+        <v>5.39</v>
+      </c>
+      <c r="U66" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V66" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W66" s="16">
+        <v>490.1</v>
+      </c>
+      <c r="X66" s="16">
+        <v>1081.54</v>
+      </c>
+      <c r="Y66" s="16">
+        <v>-0.89</v>
+      </c>
+      <c r="Z66" s="16">
+        <v>5734.69</v>
+      </c>
+      <c r="AA66" s="16">
+        <v>383.02</v>
+      </c>
+    </row>
+    <row r="67" ht="18.75" spans="18:27">
+      <c r="R67" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S67" s="16">
+        <v>6.86</v>
+      </c>
+      <c r="T67" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U67" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V67" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W67" s="16">
+        <v>33.06</v>
+      </c>
+      <c r="X67" s="16">
+        <v>985.82</v>
+      </c>
+      <c r="Y67" s="16">
+        <v>-0.57</v>
+      </c>
+      <c r="Z67" s="16">
+        <v>430.71</v>
+      </c>
+      <c r="AA67" s="16">
+        <v>430.71</v>
+      </c>
+    </row>
+    <row r="68" ht="18.75" spans="18:27">
+      <c r="R68" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S68" s="16">
+        <v>6.89</v>
+      </c>
+      <c r="T68" s="16">
+        <v>1.51</v>
+      </c>
+      <c r="U68" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V68" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W68" s="16">
+        <v>125.52</v>
+      </c>
+      <c r="X68" s="16">
+        <v>988.92</v>
+      </c>
+      <c r="Y68" s="16">
+        <v>-0.58</v>
+      </c>
+      <c r="Z68" s="16">
+        <v>1406.7</v>
+      </c>
+      <c r="AA68" s="16">
+        <v>484.43</v>
+      </c>
+    </row>
+    <row r="69" ht="18.75" spans="18:27">
+      <c r="R69" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S69" s="16">
+        <v>7.02</v>
+      </c>
+      <c r="T69" s="16">
+        <v>2.49</v>
+      </c>
+      <c r="U69" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V69" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W69" s="16">
+        <v>218.28</v>
+      </c>
+      <c r="X69" s="16">
+        <v>1000.69</v>
+      </c>
+      <c r="Y69" s="16">
+        <v>-0.62</v>
+      </c>
+      <c r="Z69" s="16">
+        <v>2412.06</v>
+      </c>
+      <c r="AA69" s="16">
+        <v>503.72</v>
+      </c>
+    </row>
+    <row r="70" ht="18.75" spans="18:27">
+      <c r="R70" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S70" s="16">
+        <v>7.24</v>
+      </c>
+      <c r="T70" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="U70" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V70" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W70" s="16">
+        <v>312.13</v>
+      </c>
+      <c r="X70" s="16">
+        <v>1021.17</v>
+      </c>
+      <c r="Y70" s="16">
+        <v>-0.69</v>
+      </c>
+      <c r="Z70" s="16">
+        <v>3481.58</v>
+      </c>
+      <c r="AA70" s="16">
+        <v>517.26</v>
+      </c>
+    </row>
+    <row r="71" ht="18.75" spans="18:27">
+      <c r="R71" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S71" s="16">
+        <v>7.55</v>
+      </c>
+      <c r="T71" s="16">
+        <v>4.52</v>
+      </c>
+      <c r="U71" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V71" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W71" s="16">
+        <v>407.91</v>
+      </c>
+      <c r="X71" s="16">
+        <v>1050.44</v>
+      </c>
+      <c r="Y71" s="16">
+        <v>-0.78</v>
+      </c>
+      <c r="Z71" s="16">
+        <v>4651.69</v>
+      </c>
+      <c r="AA71" s="16">
+        <v>535.15</v>
+      </c>
+    </row>
+    <row r="72" ht="18.75" spans="18:27">
+      <c r="R72" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S72" s="16">
+        <v>7.96</v>
+      </c>
+      <c r="T72" s="16">
+        <v>5.57</v>
+      </c>
+      <c r="U72" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V72" s="16">
+        <v>29.98</v>
+      </c>
+      <c r="W72" s="16">
+        <v>506.44</v>
+      </c>
+      <c r="X72" s="16">
+        <v>1088.7</v>
+      </c>
+      <c r="Y72" s="16">
+        <v>-0.91</v>
+      </c>
+      <c r="Z72" s="16">
+        <v>5961.7</v>
+      </c>
+      <c r="AA72" s="16">
+        <v>556.57</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" spans="18:27">
+      <c r="R73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S73" s="16">
+        <v>4.77</v>
+      </c>
+      <c r="T73" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U73" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V73" s="16">
+        <v>45</v>
+      </c>
+      <c r="W73" s="16">
+        <v>-1.61</v>
+      </c>
+      <c r="X73" s="16">
+        <v>789.79</v>
+      </c>
+      <c r="Y73" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="Z73" s="16">
+        <v>110.06</v>
+      </c>
+      <c r="AA73" s="16">
+        <v>110.06</v>
+      </c>
+    </row>
+    <row r="74" ht="18.75" spans="18:27">
+      <c r="R74" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S74" s="16">
+        <v>4.77</v>
+      </c>
+      <c r="T74" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="U74" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V74" s="16">
+        <v>45</v>
+      </c>
+      <c r="W74" s="16">
+        <v>72.47</v>
+      </c>
+      <c r="X74" s="16">
+        <v>789.64</v>
+      </c>
+      <c r="Y74" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="Z74" s="16">
+        <v>733.71</v>
+      </c>
+      <c r="AA74" s="16">
+        <v>148.22</v>
+      </c>
+    </row>
+    <row r="75" ht="18.75" spans="18:27">
+      <c r="R75" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S75" s="16">
+        <v>4.84</v>
+      </c>
+      <c r="T75" s="16">
+        <v>1.78</v>
+      </c>
+      <c r="U75" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V75" s="16">
+        <v>45</v>
+      </c>
+      <c r="W75" s="16">
+        <v>146.53</v>
+      </c>
+      <c r="X75" s="16">
+        <v>796.44</v>
+      </c>
+      <c r="Y75" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="Z75" s="16">
+        <v>1367.87</v>
+      </c>
+      <c r="AA75" s="16">
+        <v>153.69</v>
+      </c>
+    </row>
+    <row r="76" ht="18.75" spans="18:27">
+      <c r="R76" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S76" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="T76" s="16">
+        <v>2.58</v>
+      </c>
+      <c r="U76" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V76" s="16">
+        <v>45</v>
+      </c>
+      <c r="W76" s="16">
+        <v>221.23</v>
+      </c>
+      <c r="X76" s="16">
+        <v>810.18</v>
+      </c>
+      <c r="Y76" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="Z76" s="16">
+        <v>2034.6</v>
+      </c>
+      <c r="AA76" s="16">
+        <v>157.72</v>
+      </c>
+    </row>
+    <row r="77" ht="18.75" spans="18:27">
+      <c r="R77" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S77" s="16">
+        <v>5.21</v>
+      </c>
+      <c r="T77" s="16">
+        <v>3.39</v>
+      </c>
+      <c r="U77" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V77" s="16">
+        <v>45</v>
+      </c>
+      <c r="W77" s="16">
+        <v>297.22</v>
+      </c>
+      <c r="X77" s="16">
+        <v>830.93</v>
+      </c>
+      <c r="Y77" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="Z77" s="16">
+        <v>2756.74</v>
+      </c>
+      <c r="AA77" s="16">
+        <v>162.64</v>
+      </c>
+    </row>
+    <row r="78" ht="18.75" spans="18:27">
+      <c r="R78" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S78" s="16">
+        <v>5.51</v>
+      </c>
+      <c r="T78" s="16">
+        <v>4.22</v>
+      </c>
+      <c r="U78" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V78" s="16">
+        <v>45</v>
+      </c>
+      <c r="W78" s="16">
+        <v>375.15</v>
+      </c>
+      <c r="X78" s="16">
+        <v>858.81</v>
+      </c>
+      <c r="Y78" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="Z78" s="16">
+        <v>3558.69</v>
+      </c>
+      <c r="AA78" s="16">
+        <v>168.66</v>
+      </c>
+    </row>
+    <row r="79" ht="18.75" spans="18:27">
+      <c r="R79" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S79" s="16">
+        <v>5.88</v>
+      </c>
+      <c r="T79" s="16">
+        <v>5.08</v>
+      </c>
+      <c r="U79" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V79" s="16">
+        <v>45</v>
+      </c>
+      <c r="W79" s="16">
+        <v>455.7</v>
+      </c>
+      <c r="X79" s="16">
+        <v>894</v>
+      </c>
+      <c r="Y79" s="16">
+        <v>-0.27</v>
+      </c>
+      <c r="Z79" s="16">
+        <v>4467.2</v>
+      </c>
+      <c r="AA79" s="16">
+        <v>175.87</v>
+      </c>
+    </row>
+    <row r="80" ht="18.75" spans="18:27">
+      <c r="R80" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S80" s="16">
+        <v>6.34</v>
+      </c>
+      <c r="T80" s="16">
+        <v>5.97</v>
+      </c>
+      <c r="U80" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V80" s="16">
+        <v>45</v>
+      </c>
+      <c r="W80" s="16">
+        <v>539.55</v>
+      </c>
+      <c r="X80" s="16">
+        <v>936.74</v>
+      </c>
+      <c r="Y80" s="16">
+        <v>-0.41</v>
+      </c>
+      <c r="Z80" s="16">
+        <v>5512.31</v>
+      </c>
+      <c r="AA80" s="16">
+        <v>184.67</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" spans="18:27">
+      <c r="R81" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S81" s="16">
+        <v>6.88</v>
+      </c>
+      <c r="T81" s="16">
+        <v>6.91</v>
+      </c>
+      <c r="U81" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V81" s="16">
+        <v>45</v>
+      </c>
+      <c r="W81" s="16">
+        <v>627.41</v>
+      </c>
+      <c r="X81" s="16">
+        <v>987.34</v>
+      </c>
+      <c r="Y81" s="16">
+        <v>-0.57</v>
+      </c>
+      <c r="Z81" s="16">
+        <v>6728.31</v>
+      </c>
+      <c r="AA81" s="16">
+        <v>194.74</v>
+      </c>
+    </row>
+    <row r="82" ht="18.75" spans="18:27">
+      <c r="R82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S82" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="T82" s="16">
+        <v>7.89</v>
+      </c>
+      <c r="U82" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V82" s="16">
+        <v>45</v>
+      </c>
+      <c r="W82" s="16">
+        <v>720.02</v>
+      </c>
+      <c r="X82" s="16">
+        <v>1046.19</v>
+      </c>
+      <c r="Y82" s="16">
+        <v>-0.77</v>
+      </c>
+      <c r="Z82" s="16">
+        <v>8154.91</v>
+      </c>
+      <c r="AA82" s="16">
+        <v>206.72</v>
+      </c>
+    </row>
+    <row r="83" ht="18.75" spans="18:27">
+      <c r="R83" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S83" s="16">
+        <v>4.77</v>
+      </c>
+      <c r="T83" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U83" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V83" s="16">
+        <v>45</v>
+      </c>
+      <c r="W83" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="X83" s="16">
+        <v>789.79</v>
+      </c>
+      <c r="Y83" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="Z83" s="16">
+        <v>236.43</v>
+      </c>
+      <c r="AA83" s="16">
+        <v>236.43</v>
+      </c>
+    </row>
+    <row r="84" ht="18.75" spans="18:27">
+      <c r="R84" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S84" s="16">
+        <v>4.78</v>
+      </c>
+      <c r="T84" s="16">
+        <v>1.15</v>
+      </c>
+      <c r="U84" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V84" s="16">
+        <v>45</v>
+      </c>
+      <c r="W84" s="16">
+        <v>87.47</v>
+      </c>
+      <c r="X84" s="16">
+        <v>791.05</v>
+      </c>
+      <c r="Y84" s="16">
+        <v>0.07</v>
+      </c>
+      <c r="Z84" s="16">
+        <v>861.37</v>
+      </c>
+      <c r="AA84" s="16">
+        <v>269.65</v>
+      </c>
+    </row>
+    <row r="85" ht="18.75" spans="18:27">
+      <c r="R85" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S85" s="16">
+        <v>4.87</v>
+      </c>
+      <c r="T85" s="16">
+        <v>1.94</v>
+      </c>
+      <c r="U85" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V85" s="16">
+        <v>45</v>
+      </c>
+      <c r="W85" s="16">
+        <v>161.67</v>
+      </c>
+      <c r="X85" s="16">
+        <v>799.25</v>
+      </c>
+      <c r="Y85" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="Z85" s="16">
+        <v>1501.27</v>
+      </c>
+      <c r="AA85" s="16">
+        <v>278.59</v>
+      </c>
+    </row>
+    <row r="86" ht="18.75" spans="18:27">
+      <c r="R86" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S86" s="16">
+        <v>5.03</v>
+      </c>
+      <c r="T86" s="16">
+        <v>2.74</v>
+      </c>
+      <c r="U86" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V86" s="16">
+        <v>45</v>
+      </c>
+      <c r="W86" s="16">
+        <v>236.63</v>
+      </c>
+      <c r="X86" s="16">
+        <v>814.42</v>
+      </c>
+      <c r="Y86" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="16">
+        <v>2178.33</v>
+      </c>
+      <c r="AA86" s="16">
+        <v>286.2</v>
+      </c>
+    </row>
+    <row r="87" ht="18.75" spans="18:27">
+      <c r="R87" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S87" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="T87" s="16">
+        <v>3.55</v>
+      </c>
+      <c r="U87" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V87" s="16">
+        <v>45</v>
+      </c>
+      <c r="W87" s="16">
+        <v>313.02</v>
+      </c>
+      <c r="X87" s="16">
+        <v>836.61</v>
+      </c>
+      <c r="Y87" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="Z87" s="16">
+        <v>2915.68</v>
+      </c>
+      <c r="AA87" s="16">
+        <v>295.67</v>
+      </c>
+    </row>
+    <row r="88" ht="18.75" spans="18:27">
+      <c r="R88" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S88" s="16">
+        <v>5.58</v>
+      </c>
+      <c r="T88" s="16">
+        <v>4.39</v>
+      </c>
+      <c r="U88" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V88" s="16">
+        <v>45</v>
+      </c>
+      <c r="W88" s="16">
+        <v>391.49</v>
+      </c>
+      <c r="X88" s="16">
+        <v>865.97</v>
+      </c>
+      <c r="Y88" s="16">
+        <v>-0.17</v>
+      </c>
+      <c r="Z88" s="16">
+        <v>3738.14</v>
+      </c>
+      <c r="AA88" s="16">
+        <v>306.54</v>
+      </c>
+    </row>
+    <row r="89" ht="18.75" spans="18:27">
+      <c r="R89" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S89" s="16">
+        <v>5.97</v>
+      </c>
+      <c r="T89" s="16">
+        <v>5.26</v>
+      </c>
+      <c r="U89" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V89" s="16">
+        <v>45</v>
+      </c>
+      <c r="W89" s="16">
+        <v>472.71</v>
+      </c>
+      <c r="X89" s="16">
+        <v>902.69</v>
+      </c>
+      <c r="Y89" s="16">
+        <v>-0.29</v>
+      </c>
+      <c r="Z89" s="16">
+        <v>4673.1</v>
+      </c>
+      <c r="AA89" s="16">
+        <v>319.83</v>
+      </c>
+    </row>
+    <row r="90" ht="18.75" spans="18:27">
+      <c r="R90" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S90" s="16">
+        <v>6.45</v>
+      </c>
+      <c r="T90" s="16">
+        <v>6.16</v>
+      </c>
+      <c r="U90" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V90" s="16">
+        <v>45</v>
+      </c>
+      <c r="W90" s="16">
+        <v>557.38</v>
+      </c>
+      <c r="X90" s="16">
+        <v>947.03</v>
+      </c>
+      <c r="Y90" s="16">
+        <v>-0.44</v>
+      </c>
+      <c r="Z90" s="16">
+        <v>5751.43</v>
+      </c>
+      <c r="AA90" s="16">
+        <v>336.12</v>
+      </c>
+    </row>
+    <row r="91" ht="18.75" spans="18:27">
+      <c r="R91" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S91" s="16">
+        <v>7</v>
+      </c>
+      <c r="T91" s="16">
+        <v>7.11</v>
+      </c>
+      <c r="U91" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V91" s="16">
+        <v>45</v>
+      </c>
+      <c r="W91" s="16">
+        <v>646.2</v>
+      </c>
+      <c r="X91" s="16">
+        <v>999.3</v>
+      </c>
+      <c r="Y91" s="16">
+        <v>-0.61</v>
+      </c>
+      <c r="Z91" s="16">
+        <v>7008.46</v>
+      </c>
+      <c r="AA91" s="16">
+        <v>354.86</v>
+      </c>
+    </row>
+    <row r="92" ht="18.75" spans="18:27">
+      <c r="R92" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S92" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T92" s="16">
+        <v>8.11</v>
+      </c>
+      <c r="U92" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V92" s="16">
+        <v>45</v>
+      </c>
+      <c r="W92" s="16">
+        <v>739.93</v>
+      </c>
+      <c r="X92" s="16">
+        <v>1059.91</v>
+      </c>
+      <c r="Y92" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z92" s="16">
+        <v>8485.21</v>
+      </c>
+      <c r="AA92" s="16">
+        <v>376.66</v>
+      </c>
+    </row>
+    <row r="93" ht="18.75" spans="18:27">
+      <c r="R93" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S93" s="16">
+        <v>4.77</v>
+      </c>
+      <c r="T93" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U93" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V93" s="16">
+        <v>45</v>
+      </c>
+      <c r="W93" s="16">
+        <v>28.4</v>
+      </c>
+      <c r="X93" s="16">
+        <v>789.79</v>
+      </c>
+      <c r="Y93" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="Z93" s="16">
+        <v>362.79</v>
+      </c>
+      <c r="AA93" s="16">
+        <v>362.79</v>
+      </c>
+    </row>
+    <row r="94" ht="18.75" spans="18:27">
+      <c r="R94" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S94" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="T94" s="16">
+        <v>1.31</v>
+      </c>
+      <c r="U94" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V94" s="16">
+        <v>45</v>
+      </c>
+      <c r="W94" s="16">
+        <v>102.48</v>
+      </c>
+      <c r="X94" s="16">
+        <v>792.46</v>
+      </c>
+      <c r="Y94" s="16">
+        <v>0.07</v>
+      </c>
+      <c r="Z94" s="16">
+        <v>989.48</v>
+      </c>
+      <c r="AA94" s="16">
+        <v>392.77</v>
+      </c>
+    </row>
+    <row r="95" ht="18.75" spans="18:27">
+      <c r="R95" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S95" s="16">
+        <v>4.9</v>
+      </c>
+      <c r="T95" s="16">
+        <v>2.1</v>
+      </c>
+      <c r="U95" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V95" s="16">
+        <v>45</v>
+      </c>
+      <c r="W95" s="16">
+        <v>176.81</v>
+      </c>
+      <c r="X95" s="16">
+        <v>802.07</v>
+      </c>
+      <c r="Y95" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="Z95" s="16">
+        <v>1635.58</v>
+      </c>
+      <c r="AA95" s="16">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="96" ht="18.75" spans="18:27">
+      <c r="R96" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S96" s="16">
+        <v>5.08</v>
+      </c>
+      <c r="T96" s="16">
+        <v>2.9</v>
+      </c>
+      <c r="U96" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V96" s="16">
+        <v>45</v>
+      </c>
+      <c r="W96" s="16">
+        <v>252.04</v>
+      </c>
+      <c r="X96" s="16">
+        <v>818.65</v>
+      </c>
+      <c r="Y96" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="Z96" s="16">
+        <v>2323.46</v>
+      </c>
+      <c r="AA96" s="16">
+        <v>416.62</v>
+      </c>
+    </row>
+    <row r="97" ht="18.75" spans="18:27">
+      <c r="R97" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S97" s="16">
+        <v>5.33</v>
+      </c>
+      <c r="T97" s="16">
+        <v>3.72</v>
+      </c>
+      <c r="U97" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V97" s="16">
+        <v>45</v>
+      </c>
+      <c r="W97" s="16">
+        <v>328.82</v>
+      </c>
+      <c r="X97" s="16">
+        <v>842.29</v>
+      </c>
+      <c r="Y97" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Z97" s="16">
+        <v>3076.52</v>
+      </c>
+      <c r="AA97" s="16">
+        <v>430.05</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" spans="18:27">
+      <c r="R98" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S98" s="16">
+        <v>5.66</v>
+      </c>
+      <c r="T98" s="16">
+        <v>4.57</v>
+      </c>
+      <c r="U98" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V98" s="16">
+        <v>45</v>
+      </c>
+      <c r="W98" s="16">
+        <v>407.82</v>
+      </c>
+      <c r="X98" s="16">
+        <v>873.13</v>
+      </c>
+      <c r="Y98" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="Z98" s="16">
+        <v>3920.08</v>
+      </c>
+      <c r="AA98" s="16">
+        <v>446.05</v>
+      </c>
+    </row>
+    <row r="99" ht="18.75" spans="18:27">
+      <c r="R99" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S99" s="16">
+        <v>6.07</v>
+      </c>
+      <c r="T99" s="16">
+        <v>5.44</v>
+      </c>
+      <c r="U99" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V99" s="16">
+        <v>45</v>
+      </c>
+      <c r="W99" s="16">
+        <v>489.71</v>
+      </c>
+      <c r="X99" s="16">
+        <v>911.38</v>
+      </c>
+      <c r="Y99" s="16">
+        <v>-0.32</v>
+      </c>
+      <c r="Z99" s="16">
+        <v>4882.15</v>
+      </c>
+      <c r="AA99" s="16">
+        <v>466.68</v>
+      </c>
+    </row>
+    <row r="100" ht="18.75" spans="18:27">
+      <c r="R100" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S100" s="16">
+        <v>6.56</v>
+      </c>
+      <c r="T100" s="16">
+        <v>6.35</v>
+      </c>
+      <c r="U100" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V100" s="16">
+        <v>45</v>
+      </c>
+      <c r="W100" s="16">
+        <v>575.2</v>
+      </c>
+      <c r="X100" s="16">
+        <v>957.31</v>
+      </c>
+      <c r="Y100" s="16">
+        <v>-0.48</v>
+      </c>
+      <c r="Z100" s="16">
+        <v>5994.45</v>
+      </c>
+      <c r="AA100" s="16">
+        <v>490.88</v>
+      </c>
+    </row>
+    <row r="101" ht="18.75" spans="18:27">
+      <c r="R101" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S101" s="16">
+        <v>7.13</v>
+      </c>
+      <c r="T101" s="16">
+        <v>7.31</v>
+      </c>
+      <c r="U101" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V101" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W101" s="16">
+        <v>664.99</v>
+      </c>
+      <c r="X101" s="16">
+        <v>1011.26</v>
+      </c>
+      <c r="Y101" s="16">
+        <v>-0.65</v>
+      </c>
+      <c r="Z101" s="16">
+        <v>7293.4</v>
+      </c>
+      <c r="AA101" s="16">
+        <v>518.82</v>
+      </c>
+    </row>
+    <row r="102" ht="18.75" spans="18:27">
+      <c r="R102" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S102" s="16">
+        <v>6.67</v>
+      </c>
+      <c r="T102" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U102" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V102" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W102" s="16">
+        <v>-1.61</v>
+      </c>
+      <c r="X102" s="16">
+        <v>968</v>
+      </c>
+      <c r="Y102" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="Z102" s="16">
+        <v>107</v>
+      </c>
+      <c r="AA102" s="16">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" ht="18.75" spans="18:27">
+      <c r="R103" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S103" s="16">
+        <v>6.67</v>
+      </c>
+      <c r="T103" s="16">
+        <v>1.17</v>
+      </c>
+      <c r="U103" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V103" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W103" s="16">
+        <v>89.18</v>
+      </c>
+      <c r="X103" s="16">
+        <v>967.85</v>
+      </c>
+      <c r="Y103" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="Z103" s="16">
+        <v>1043.88</v>
+      </c>
+      <c r="AA103" s="16">
+        <v>178.44</v>
+      </c>
+    </row>
+    <row r="104" ht="18.75" spans="18:27">
+      <c r="R104" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S104" s="16">
+        <v>6.76</v>
+      </c>
+      <c r="T104" s="16">
+        <v>2.14</v>
+      </c>
+      <c r="U104" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V104" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W104" s="16">
+        <v>179.96</v>
+      </c>
+      <c r="X104" s="16">
+        <v>976.21</v>
+      </c>
+      <c r="Y104" s="16">
+        <v>-0.54</v>
+      </c>
+      <c r="Z104" s="16">
+        <v>1996.66</v>
+      </c>
+      <c r="AA104" s="16">
+        <v>186.6</v>
+      </c>
+    </row>
+    <row r="105" ht="18.75" spans="18:27">
+      <c r="R105" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S105" s="16">
+        <v>6.94</v>
+      </c>
+      <c r="T105" s="16">
+        <v>3.11</v>
+      </c>
+      <c r="U105" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V105" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W105" s="16">
+        <v>271.52</v>
+      </c>
+      <c r="X105" s="16">
+        <v>993.09</v>
+      </c>
+      <c r="Y105" s="16">
+        <v>-0.59</v>
+      </c>
+      <c r="Z105" s="16">
+        <v>2998.51</v>
+      </c>
+      <c r="AA105" s="16">
+        <v>192.83</v>
+      </c>
+    </row>
+    <row r="106" ht="18.75" spans="18:27">
+      <c r="R106" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S106" s="16">
+        <v>7.21</v>
+      </c>
+      <c r="T106" s="16">
+        <v>4.11</v>
+      </c>
+      <c r="U106" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V106" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W106" s="16">
+        <v>364.67</v>
+      </c>
+      <c r="X106" s="16">
+        <v>1018.56</v>
+      </c>
+      <c r="Y106" s="16">
+        <v>-0.68</v>
+      </c>
+      <c r="Z106" s="16">
+        <v>4083.76</v>
+      </c>
+      <c r="AA106" s="16">
+        <v>198.72</v>
+      </c>
+    </row>
+    <row r="107" ht="18.75" spans="18:27">
+      <c r="R107" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S107" s="16">
+        <v>7.57</v>
+      </c>
+      <c r="T107" s="16">
+        <v>5.12</v>
+      </c>
+      <c r="U107" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V107" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W107" s="16">
+        <v>460.2</v>
+      </c>
+      <c r="X107" s="16">
+        <v>1052.76</v>
+      </c>
+      <c r="Y107" s="16">
+        <v>-0.79</v>
+      </c>
+      <c r="Z107" s="16">
+        <v>5289.04</v>
+      </c>
+      <c r="AA107" s="16">
+        <v>206.6</v>
+      </c>
+    </row>
+    <row r="108" ht="18.75" spans="18:27">
+      <c r="R108" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S108" s="16">
+        <v>6.67</v>
+      </c>
+      <c r="T108" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U108" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V108" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W108" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="X108" s="16">
+        <v>968</v>
+      </c>
+      <c r="Y108" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="Z108" s="16">
+        <v>261.88</v>
+      </c>
+      <c r="AA108" s="16">
+        <v>261.88</v>
+      </c>
+    </row>
+    <row r="109" ht="18.75" spans="18:27">
+      <c r="R109" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S109" s="16">
+        <v>6.68</v>
+      </c>
+      <c r="T109" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="U109" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V109" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W109" s="16">
+        <v>104.19</v>
+      </c>
+      <c r="X109" s="16">
+        <v>969.26</v>
+      </c>
+      <c r="Y109" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="Z109" s="16">
+        <v>1200.3</v>
+      </c>
+      <c r="AA109" s="16">
+        <v>324.89</v>
+      </c>
+    </row>
+    <row r="110" ht="18.75" spans="18:27">
+      <c r="R110" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S110" s="16">
+        <v>6.79</v>
+      </c>
+      <c r="T110" s="16">
+        <v>2.3</v>
+      </c>
+      <c r="U110" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V110" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W110" s="16">
+        <v>195.1</v>
+      </c>
+      <c r="X110" s="16">
+        <v>979.03</v>
+      </c>
+      <c r="Y110" s="16">
+        <v>-0.55</v>
+      </c>
+      <c r="Z110" s="16">
+        <v>2160.09</v>
+      </c>
+      <c r="AA110" s="16">
+        <v>338.1</v>
+      </c>
+    </row>
+    <row r="111" ht="18.75" spans="18:27">
+      <c r="R111" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S111" s="16">
+        <v>6.98</v>
+      </c>
+      <c r="T111" s="16">
+        <v>3.28</v>
+      </c>
+      <c r="U111" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V111" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W111" s="16">
+        <v>286.93</v>
+      </c>
+      <c r="X111" s="16">
+        <v>997.33</v>
+      </c>
+      <c r="Y111" s="16">
+        <v>-0.61</v>
+      </c>
+      <c r="Z111" s="16">
+        <v>3174.56</v>
+      </c>
+      <c r="AA111" s="16">
+        <v>348.43</v>
+      </c>
+    </row>
+    <row r="112" ht="18.75" spans="18:27">
+      <c r="R112" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S112" s="16">
+        <v>7.27</v>
+      </c>
+      <c r="T112" s="16">
+        <v>4.27</v>
+      </c>
+      <c r="U112" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V112" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W112" s="16">
+        <v>380.47</v>
+      </c>
+      <c r="X112" s="16">
+        <v>1024.24</v>
+      </c>
+      <c r="Y112" s="16">
+        <v>-0.7</v>
+      </c>
+      <c r="Z112" s="16">
+        <v>4278.39</v>
+      </c>
+      <c r="AA112" s="16">
+        <v>360.71</v>
+      </c>
+    </row>
+    <row r="113" ht="18.75" spans="18:27">
+      <c r="R113" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S113" s="16">
+        <v>6.67</v>
+      </c>
+      <c r="T113" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U113" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V113" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W113" s="16">
+        <v>28.41</v>
+      </c>
+      <c r="X113" s="16">
+        <v>968</v>
+      </c>
+      <c r="Y113" s="16">
+        <v>-0.51</v>
+      </c>
+      <c r="Z113" s="16">
+        <v>416.76</v>
+      </c>
+      <c r="AA113" s="16">
+        <v>416.76</v>
+      </c>
+    </row>
+    <row r="114" ht="18.75" spans="18:27">
+      <c r="R114" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S114" s="16">
+        <v>6.7</v>
+      </c>
+      <c r="T114" s="16">
+        <v>1.49</v>
+      </c>
+      <c r="U114" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V114" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W114" s="16">
+        <v>119.2</v>
+      </c>
+      <c r="X114" s="16">
+        <v>970.66</v>
+      </c>
+      <c r="Y114" s="16">
+        <v>-0.52</v>
+      </c>
+      <c r="Z114" s="16">
+        <v>1357.17</v>
+      </c>
+      <c r="AA114" s="16">
+        <v>473.64</v>
+      </c>
+    </row>
+    <row r="115" ht="18.75" spans="18:27">
+      <c r="R115" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S115" s="16">
+        <v>6.82</v>
+      </c>
+      <c r="T115" s="16">
+        <v>2.46</v>
+      </c>
+      <c r="U115" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V115" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W115" s="16">
+        <v>210.24</v>
+      </c>
+      <c r="X115" s="16">
+        <v>981.84</v>
+      </c>
+      <c r="Y115" s="16">
+        <v>-0.56</v>
+      </c>
+      <c r="Z115" s="16">
+        <v>2324.42</v>
+      </c>
+      <c r="AA115" s="16">
+        <v>491.34</v>
+      </c>
+    </row>
+    <row r="116" ht="18.75" spans="18:27">
+      <c r="R116" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S116" s="16">
+        <v>7.03</v>
+      </c>
+      <c r="T116" s="16">
+        <v>3.44</v>
+      </c>
+      <c r="U116" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V116" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W116" s="16">
+        <v>302.33</v>
+      </c>
+      <c r="X116" s="16">
+        <v>1001.56</v>
+      </c>
+      <c r="Y116" s="16">
+        <v>-0.62</v>
+      </c>
+      <c r="Z116" s="16">
+        <v>3352</v>
+      </c>
+      <c r="AA116" s="16">
+        <v>506.7</v>
+      </c>
+    </row>
+    <row r="117" ht="18.75" spans="18:27">
+      <c r="R117" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S117" s="16">
+        <v>7.33</v>
+      </c>
+      <c r="T117" s="16">
+        <v>4.44</v>
+      </c>
+      <c r="U117" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V117" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W117" s="16">
+        <v>396.27</v>
+      </c>
+      <c r="X117" s="16">
+        <v>1029.92</v>
+      </c>
+      <c r="Y117" s="16">
+        <v>-0.72</v>
+      </c>
+      <c r="Z117" s="16">
+        <v>4474.93</v>
+      </c>
+      <c r="AA117" s="16">
+        <v>524.09</v>
+      </c>
+    </row>
+    <row r="118" ht="18.75" spans="18:27">
+      <c r="R118" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S118" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T118" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U118" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V118" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W118" s="16">
+        <v>-1.61</v>
+      </c>
+      <c r="X118" s="16">
+        <v>1059.92</v>
+      </c>
+      <c r="Y118" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z118" s="16">
+        <v>105.43</v>
+      </c>
+      <c r="AA118" s="16">
+        <v>105.43</v>
+      </c>
+    </row>
+    <row r="119" ht="18.75" spans="18:27">
+      <c r="R119" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S119" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T119" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="U119" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V119" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W119" s="16">
+        <v>97.81</v>
+      </c>
+      <c r="X119" s="16">
+        <v>1059.77</v>
+      </c>
+      <c r="Y119" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z119" s="16">
+        <v>1228.7</v>
+      </c>
+      <c r="AA119" s="16">
+        <v>195.03</v>
+      </c>
+    </row>
+    <row r="120" ht="18.75" spans="18:27">
+      <c r="R120" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S120" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T120" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U120" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V120" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W120" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="X120" s="16">
+        <v>1059.92</v>
+      </c>
+      <c r="Y120" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z120" s="16">
+        <v>275.02</v>
+      </c>
+      <c r="AA120" s="16">
+        <v>275.02</v>
+      </c>
+    </row>
+    <row r="121" ht="18.75" spans="18:27">
+      <c r="R121" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S121" s="16">
+        <v>7.65</v>
+      </c>
+      <c r="T121" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U121" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V121" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W121" s="16">
+        <v>28.41</v>
+      </c>
+      <c r="X121" s="16">
+        <v>1059.92</v>
+      </c>
+      <c r="Y121" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z121" s="16">
+        <v>444.61</v>
+      </c>
+      <c r="AA121" s="16">
+        <v>444.61</v>
+      </c>
+    </row>
+    <row r="122" ht="18.75" spans="18:27">
+      <c r="R122" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S122" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="T122" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U122" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V122" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W122" s="16">
+        <v>-1.61</v>
+      </c>
+      <c r="X122" s="16">
+        <v>836.69</v>
+      </c>
+      <c r="Y122" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="Z122" s="16">
+        <v>109.25</v>
+      </c>
+      <c r="AA122" s="16">
+        <v>109.25</v>
+      </c>
+    </row>
+    <row r="123" ht="18.75" spans="18:27">
+      <c r="R123" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S123" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="T123" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="U123" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V123" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W123" s="16">
+        <v>76.87</v>
+      </c>
+      <c r="X123" s="16">
+        <v>836.54</v>
+      </c>
+      <c r="Y123" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="Z123" s="16">
+        <v>809.18</v>
+      </c>
+      <c r="AA123" s="16">
+        <v>155.61</v>
+      </c>
+    </row>
+    <row r="124" ht="18.75" spans="18:27">
+      <c r="R124" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S124" s="16">
+        <v>5.35</v>
+      </c>
+      <c r="T124" s="16">
+        <v>1.87</v>
+      </c>
+      <c r="U124" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V124" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W124" s="16">
+        <v>155.33</v>
+      </c>
+      <c r="X124" s="16">
+        <v>843.75</v>
+      </c>
+      <c r="Y124" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="Z124" s="16">
+        <v>1520.92</v>
+      </c>
+      <c r="AA124" s="16">
+        <v>162.67</v>
+      </c>
+    </row>
+    <row r="125" ht="18.75" spans="18:27">
+      <c r="R125" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S125" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="T125" s="16">
+        <v>2.72</v>
+      </c>
+      <c r="U125" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V125" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W125" s="16">
+        <v>234.47</v>
+      </c>
+      <c r="X125" s="16">
+        <v>858.32</v>
+      </c>
+      <c r="Y125" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="Z125" s="16">
+        <v>2269.25</v>
+      </c>
+      <c r="AA125" s="16">
+        <v>166.86</v>
+      </c>
+    </row>
+    <row r="126" ht="18.75" spans="18:27">
+      <c r="R126" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S126" s="16">
+        <v>5.74</v>
+      </c>
+      <c r="T126" s="16">
+        <v>3.58</v>
+      </c>
+      <c r="U126" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V126" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W126" s="16">
+        <v>314.97</v>
+      </c>
+      <c r="X126" s="16">
+        <v>880.31</v>
+      </c>
+      <c r="Y126" s="16">
+        <v>-0.22</v>
+      </c>
+      <c r="Z126" s="16">
+        <v>3079.81</v>
+      </c>
+      <c r="AA126" s="16">
+        <v>172.06</v>
+      </c>
+    </row>
+    <row r="127" ht="18.75" spans="18:27">
+      <c r="R127" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S127" s="16">
+        <v>6.05</v>
+      </c>
+      <c r="T127" s="16">
+        <v>4.46</v>
+      </c>
+      <c r="U127" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V127" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W127" s="16">
+        <v>397.54</v>
+      </c>
+      <c r="X127" s="16">
+        <v>909.85</v>
+      </c>
+      <c r="Y127" s="16">
+        <v>-0.32</v>
+      </c>
+      <c r="Z127" s="16">
+        <v>3979.97</v>
+      </c>
+      <c r="AA127" s="16">
+        <v>178.47</v>
+      </c>
+    </row>
+    <row r="128" ht="18.75" spans="18:27">
+      <c r="R128" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S128" s="16">
+        <v>6.45</v>
+      </c>
+      <c r="T128" s="16">
+        <v>5.37</v>
+      </c>
+      <c r="U128" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V128" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W128" s="16">
+        <v>482.88</v>
+      </c>
+      <c r="X128" s="16">
+        <v>947.14</v>
+      </c>
+      <c r="Y128" s="16">
+        <v>-0.44</v>
+      </c>
+      <c r="Z128" s="16">
+        <v>4999.76</v>
+      </c>
+      <c r="AA128" s="16">
+        <v>186.21</v>
+      </c>
+    </row>
+    <row r="129" ht="18.75" spans="18:27">
+      <c r="R129" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S129" s="16">
+        <v>6.93</v>
+      </c>
+      <c r="T129" s="16">
+        <v>6.31</v>
+      </c>
+      <c r="U129" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V129" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W129" s="16">
+        <v>571.71</v>
+      </c>
+      <c r="X129" s="16">
+        <v>992.43</v>
+      </c>
+      <c r="Y129" s="16">
+        <v>-0.59</v>
+      </c>
+      <c r="Z129" s="16">
+        <v>6172.9</v>
+      </c>
+      <c r="AA129" s="16">
+        <v>195.65</v>
+      </c>
+    </row>
+    <row r="130" ht="18.75" spans="18:27">
+      <c r="R130" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S130" s="16">
+        <v>7.5</v>
+      </c>
+      <c r="T130" s="16">
+        <v>7.31</v>
+      </c>
+      <c r="U130" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V130" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W130" s="16">
+        <v>664.8</v>
+      </c>
+      <c r="X130" s="16">
+        <v>1046.05</v>
+      </c>
+      <c r="Y130" s="16">
+        <v>-0.77</v>
+      </c>
+      <c r="Z130" s="16">
+        <v>7537.88</v>
+      </c>
+      <c r="AA130" s="16">
+        <v>206.23</v>
+      </c>
+    </row>
+    <row r="131" ht="18.75" spans="18:27">
+      <c r="R131" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S131" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="T131" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U131" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V131" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W131" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="X131" s="16">
+        <v>836.69</v>
+      </c>
+      <c r="Y131" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="Z131" s="16">
+        <v>243.12</v>
+      </c>
+      <c r="AA131" s="16">
+        <v>243.12</v>
+      </c>
+    </row>
+    <row r="132" ht="18.75" spans="18:27">
+      <c r="R132" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S132" s="16">
+        <v>5.28</v>
+      </c>
+      <c r="T132" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="U132" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V132" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W132" s="16">
+        <v>91.88</v>
+      </c>
+      <c r="X132" s="16">
+        <v>837.95</v>
+      </c>
+      <c r="Y132" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="Z132" s="16">
+        <v>944.4</v>
+      </c>
+      <c r="AA132" s="16">
+        <v>283.32</v>
+      </c>
+    </row>
+    <row r="133" ht="18.75" spans="18:27">
+      <c r="R133" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S133" s="16">
+        <v>5.38</v>
+      </c>
+      <c r="T133" s="16">
+        <v>2.03</v>
+      </c>
+      <c r="U133" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V133" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W133" s="16">
+        <v>170.47</v>
+      </c>
+      <c r="X133" s="16">
+        <v>846.56</v>
+      </c>
+      <c r="Y133" s="16">
+        <v>-0.11</v>
+      </c>
+      <c r="Z133" s="16">
+        <v>1662.22</v>
+      </c>
+      <c r="AA133" s="16">
+        <v>294.78</v>
+      </c>
+    </row>
+    <row r="134" ht="18.75" spans="18:27">
+      <c r="R134" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S134" s="16">
+        <v>5.55</v>
+      </c>
+      <c r="T134" s="16">
+        <v>2.88</v>
+      </c>
+      <c r="U134" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V134" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W134" s="16">
+        <v>249.87</v>
+      </c>
+      <c r="X134" s="16">
+        <v>862.55</v>
+      </c>
+      <c r="Y134" s="16">
+        <v>-0.16</v>
+      </c>
+      <c r="Z134" s="16">
+        <v>2421.49</v>
+      </c>
+      <c r="AA134" s="16">
+        <v>302.69</v>
+      </c>
+    </row>
+    <row r="135" ht="18.75" spans="18:27">
+      <c r="R135" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S135" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="T135" s="16">
+        <v>3.74</v>
+      </c>
+      <c r="U135" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V135" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W135" s="16">
+        <v>330.77</v>
+      </c>
+      <c r="X135" s="16">
+        <v>885.99</v>
+      </c>
+      <c r="Y135" s="16">
+        <v>-0.24</v>
+      </c>
+      <c r="Z135" s="16">
+        <v>3248.14</v>
+      </c>
+      <c r="AA135" s="16">
+        <v>312.66</v>
+      </c>
+    </row>
+    <row r="136" ht="18.75" spans="18:27">
+      <c r="R136" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S136" s="16">
+        <v>6.13</v>
+      </c>
+      <c r="T136" s="16">
+        <v>4.63</v>
+      </c>
+      <c r="U136" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V136" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W136" s="16">
+        <v>413.87</v>
+      </c>
+      <c r="X136" s="16">
+        <v>917.01</v>
+      </c>
+      <c r="Y136" s="16">
+        <v>-0.34</v>
+      </c>
+      <c r="Z136" s="16">
+        <v>4170.01</v>
+      </c>
+      <c r="AA136" s="16">
+        <v>324.23</v>
+      </c>
+    </row>
+    <row r="137" ht="18.75" spans="18:27">
+      <c r="R137" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S137" s="16">
+        <v>6.54</v>
+      </c>
+      <c r="T137" s="16">
+        <v>5.55</v>
+      </c>
+      <c r="U137" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V137" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W137" s="16">
+        <v>499.88</v>
+      </c>
+      <c r="X137" s="16">
+        <v>955.83</v>
+      </c>
+      <c r="Y137" s="16">
+        <v>-0.47</v>
+      </c>
+      <c r="Z137" s="16">
+        <v>5217.81</v>
+      </c>
+      <c r="AA137" s="16">
+        <v>338.45</v>
+      </c>
+    </row>
+    <row r="138" ht="18.75" spans="18:27">
+      <c r="R138" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S138" s="16">
+        <v>7.04</v>
+      </c>
+      <c r="T138" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="U138" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V138" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W138" s="16">
+        <v>589.53</v>
+      </c>
+      <c r="X138" s="16">
+        <v>1002.72</v>
+      </c>
+      <c r="Y138" s="16">
+        <v>-0.63</v>
+      </c>
+      <c r="Z138" s="16">
+        <v>6426.13</v>
+      </c>
+      <c r="AA138" s="16">
+        <v>355.91</v>
+      </c>
+    </row>
+    <row r="139" ht="18.75" spans="18:27">
+      <c r="R139" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S139" s="16">
+        <v>7.63</v>
+      </c>
+      <c r="T139" s="16">
+        <v>7.51</v>
+      </c>
+      <c r="U139" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V139" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W139" s="16">
+        <v>683.58</v>
+      </c>
+      <c r="X139" s="16">
+        <v>1058.01</v>
+      </c>
+      <c r="Y139" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z139" s="16">
+        <v>7834.56</v>
+      </c>
+      <c r="AA139" s="16">
+        <v>375.56</v>
+      </c>
+    </row>
+    <row r="140" ht="18.75" spans="18:27">
+      <c r="R140" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S140" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="T140" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U140" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V140" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W140" s="16">
+        <v>28.41</v>
+      </c>
+      <c r="X140" s="16">
+        <v>836.69</v>
+      </c>
+      <c r="Y140" s="16">
+        <v>-0.08</v>
+      </c>
+      <c r="Z140" s="16">
+        <v>377</v>
+      </c>
+      <c r="AA140" s="16">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="141" ht="18.75" spans="18:27">
+      <c r="R141" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S141" s="16">
+        <v>5.3</v>
+      </c>
+      <c r="T141" s="16">
+        <v>1.36</v>
+      </c>
+      <c r="U141" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V141" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W141" s="16">
+        <v>106.89</v>
+      </c>
+      <c r="X141" s="16">
+        <v>839.35</v>
+      </c>
+      <c r="Y141" s="16">
+        <v>-0.09</v>
+      </c>
+      <c r="Z141" s="16">
+        <v>1080.08</v>
+      </c>
+      <c r="AA141" s="16">
+        <v>412.97</v>
+      </c>
+    </row>
+    <row r="142" ht="18.75" spans="18:27">
+      <c r="R142" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S142" s="16">
+        <v>5.41</v>
+      </c>
+      <c r="T142" s="16">
+        <v>2.2</v>
+      </c>
+      <c r="U142" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V142" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W142" s="16">
+        <v>185.61</v>
+      </c>
+      <c r="X142" s="16">
+        <v>849.38</v>
+      </c>
+      <c r="Y142" s="16">
+        <v>-0.12</v>
+      </c>
+      <c r="Z142" s="16">
+        <v>1804.43</v>
+      </c>
+      <c r="AA142" s="16">
+        <v>426.5</v>
+      </c>
+    </row>
+    <row r="143" ht="18.75" spans="18:27">
+      <c r="R143" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S143" s="16">
+        <v>5.59</v>
+      </c>
+      <c r="T143" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="U143" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V143" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W143" s="16">
+        <v>265.28</v>
+      </c>
+      <c r="X143" s="16">
+        <v>866.79</v>
+      </c>
+      <c r="Y143" s="16">
+        <v>-0.18</v>
+      </c>
+      <c r="Z143" s="16">
+        <v>2575.12</v>
+      </c>
+      <c r="AA143" s="16">
+        <v>439.04</v>
+      </c>
+    </row>
+    <row r="144" ht="18.75" spans="18:27">
+      <c r="R144" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S144" s="16">
+        <v>5.86</v>
+      </c>
+      <c r="T144" s="16">
+        <v>3.91</v>
+      </c>
+      <c r="U144" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V144" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W144" s="16">
+        <v>346.58</v>
+      </c>
+      <c r="X144" s="16">
+        <v>891.67</v>
+      </c>
+      <c r="Y144" s="16">
+        <v>-0.26</v>
+      </c>
+      <c r="Z144" s="16">
+        <v>3418.38</v>
+      </c>
+      <c r="AA144" s="16">
+        <v>454.62</v>
+      </c>
+    </row>
+    <row r="145" ht="18.75" spans="18:27">
+      <c r="R145" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S145" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="T145" s="16">
+        <v>4.8</v>
+      </c>
+      <c r="U145" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V145" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W145" s="16">
+        <v>430.21</v>
+      </c>
+      <c r="X145" s="16">
+        <v>924.18</v>
+      </c>
+      <c r="Y145" s="16">
+        <v>-0.37</v>
+      </c>
+      <c r="Z145" s="16">
+        <v>4362.55</v>
+      </c>
+      <c r="AA145" s="16">
+        <v>472.61</v>
+      </c>
+    </row>
+    <row r="146" ht="18.75" spans="18:27">
+      <c r="R146" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S146" s="16">
+        <v>6.63</v>
+      </c>
+      <c r="T146" s="16">
+        <v>5.73</v>
+      </c>
+      <c r="U146" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V146" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W146" s="16">
+        <v>516.89</v>
+      </c>
+      <c r="X146" s="16">
+        <v>964.53</v>
+      </c>
+      <c r="Y146" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="Z146" s="16">
+        <v>5439.02</v>
+      </c>
+      <c r="AA146" s="16">
+        <v>493.59</v>
+      </c>
+    </row>
+    <row r="147" ht="18.75" spans="18:27">
+      <c r="R147" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S147" s="16">
+        <v>7.15</v>
+      </c>
+      <c r="T147" s="16">
+        <v>6.69</v>
+      </c>
+      <c r="U147" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V147" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W147" s="16">
+        <v>607.36</v>
+      </c>
+      <c r="X147" s="16">
+        <v>1013.01</v>
+      </c>
+      <c r="Y147" s="16">
+        <v>-0.66</v>
+      </c>
+      <c r="Z147" s="16">
+        <v>6683.27</v>
+      </c>
+      <c r="AA147" s="16">
+        <v>519.48</v>
+      </c>
+    </row>
+    <row r="148" ht="18.75" spans="18:27">
+      <c r="R148" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S148" s="16">
+        <v>3.61</v>
+      </c>
+      <c r="T148" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U148" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V148" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W148" s="16">
+        <v>-1.6</v>
+      </c>
+      <c r="X148" s="16">
+        <v>680.99</v>
+      </c>
+      <c r="Y148" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="Z148" s="16">
+        <v>111.92</v>
+      </c>
+      <c r="AA148" s="16">
+        <v>111.92</v>
+      </c>
+    </row>
+    <row r="149" ht="18.75" spans="18:27">
+      <c r="R149" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S149" s="16">
+        <v>3.61</v>
+      </c>
+      <c r="T149" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="U149" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V149" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W149" s="16">
+        <v>62.27</v>
+      </c>
+      <c r="X149" s="16">
+        <v>680.84</v>
+      </c>
+      <c r="Y149" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="Z149" s="16">
+        <v>575.57</v>
+      </c>
+      <c r="AA149" s="16">
+        <v>130.81</v>
+      </c>
+    </row>
+    <row r="150" ht="18.75" spans="18:27">
+      <c r="R150" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S150" s="16">
+        <v>3.67</v>
+      </c>
+      <c r="T150" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="U150" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V150" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W150" s="16">
+        <v>126.13</v>
+      </c>
+      <c r="X150" s="16">
+        <v>686.68</v>
+      </c>
+      <c r="Y150" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="Z150" s="16">
+        <v>1046.97</v>
+      </c>
+      <c r="AA150" s="16">
+        <v>134.23</v>
+      </c>
+    </row>
+    <row r="151" ht="18.75" spans="18:27">
+      <c r="R151" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S151" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="T151" s="16">
+        <v>2.25</v>
+      </c>
+      <c r="U151" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V151" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W151" s="16">
+        <v>190.53</v>
+      </c>
+      <c r="X151" s="16">
+        <v>698.51</v>
+      </c>
+      <c r="Y151" s="16">
+        <v>0.38</v>
+      </c>
+      <c r="Z151" s="16">
+        <v>1542.53</v>
+      </c>
+      <c r="AA151" s="16">
+        <v>137.11</v>
+      </c>
+    </row>
+    <row r="152" ht="18.75" spans="18:27">
+      <c r="R152" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S152" s="16">
+        <v>3.99</v>
+      </c>
+      <c r="T152" s="16">
+        <v>2.95</v>
+      </c>
+      <c r="U152" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V152" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W152" s="16">
+        <v>256.05</v>
+      </c>
+      <c r="X152" s="16">
+        <v>716.38</v>
+      </c>
+      <c r="Y152" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="Z152" s="16">
+        <v>2079.24</v>
+      </c>
+      <c r="AA152" s="16">
+        <v>140.97</v>
+      </c>
+    </row>
+    <row r="153" ht="18.75" spans="18:27">
+      <c r="R153" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S153" s="16">
+        <v>4.24</v>
+      </c>
+      <c r="T153" s="16">
+        <v>3.66</v>
+      </c>
+      <c r="U153" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V153" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W153" s="16">
+        <v>323.24</v>
+      </c>
+      <c r="X153" s="16">
+        <v>740.4</v>
+      </c>
+      <c r="Y153" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="Z153" s="16">
+        <v>2675.21</v>
+      </c>
+      <c r="AA153" s="16">
+        <v>146.19</v>
+      </c>
+    </row>
+    <row r="154" ht="18.75" spans="18:27">
+      <c r="R154" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S154" s="16">
+        <v>4.57</v>
+      </c>
+      <c r="T154" s="16">
+        <v>4.4</v>
+      </c>
+      <c r="U154" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V154" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W154" s="16">
+        <v>392.68</v>
+      </c>
+      <c r="X154" s="16">
+        <v>770.72</v>
+      </c>
+      <c r="Y154" s="16">
+        <v>0.14</v>
+      </c>
+      <c r="Z154" s="16">
+        <v>3350.33</v>
+      </c>
+      <c r="AA154" s="16">
+        <v>152.29</v>
+      </c>
+    </row>
+    <row r="155" ht="18.75" spans="18:27">
+      <c r="R155" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S155" s="16">
+        <v>4.96</v>
+      </c>
+      <c r="T155" s="16">
+        <v>5.17</v>
+      </c>
+      <c r="U155" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V155" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W155" s="16">
+        <v>464.97</v>
+      </c>
+      <c r="X155" s="16">
+        <v>807.55</v>
+      </c>
+      <c r="Y155" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="Z155" s="16">
+        <v>4126.92</v>
+      </c>
+      <c r="AA155" s="16">
+        <v>159.65</v>
+      </c>
+    </row>
+    <row r="156" ht="18.75" spans="18:27">
+      <c r="R156" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S156" s="16">
+        <v>5.42</v>
+      </c>
+      <c r="T156" s="16">
+        <v>5.98</v>
+      </c>
+      <c r="U156" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V156" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W156" s="16">
+        <v>540.71</v>
+      </c>
+      <c r="X156" s="16">
+        <v>851.16</v>
+      </c>
+      <c r="Y156" s="16">
+        <v>-0.12</v>
+      </c>
+      <c r="Z156" s="16">
+        <v>5030.47</v>
+      </c>
+      <c r="AA156" s="16">
+        <v>168.24</v>
+      </c>
+    </row>
+    <row r="157" ht="18.75" spans="18:27">
+      <c r="R157" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S157" s="16">
+        <v>5.96</v>
+      </c>
+      <c r="T157" s="16">
+        <v>6.83</v>
+      </c>
+      <c r="U157" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V157" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W157" s="16">
+        <v>620.55</v>
+      </c>
+      <c r="X157" s="16">
+        <v>901.87</v>
+      </c>
+      <c r="Y157" s="16">
+        <v>-0.29</v>
+      </c>
+      <c r="Z157" s="16">
+        <v>6090.48</v>
+      </c>
+      <c r="AA157" s="16">
+        <v>178.34</v>
+      </c>
+    </row>
+    <row r="158" ht="18.75" spans="18:27">
+      <c r="R158" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S158" s="16">
+        <v>6.59</v>
+      </c>
+      <c r="T158" s="16">
+        <v>7.74</v>
+      </c>
+      <c r="U158" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V158" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W158" s="16">
+        <v>705.14</v>
+      </c>
+      <c r="X158" s="16">
+        <v>960.08</v>
+      </c>
+      <c r="Y158" s="16">
+        <v>-0.48</v>
+      </c>
+      <c r="Z158" s="16">
+        <v>7341.43</v>
+      </c>
+      <c r="AA158" s="16">
+        <v>189.7</v>
+      </c>
+    </row>
+    <row r="159" ht="18.75" spans="18:27">
+      <c r="R159" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S159" s="16">
+        <v>7.29</v>
+      </c>
+      <c r="T159" s="16">
+        <v>8.7</v>
+      </c>
+      <c r="U159" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V159" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W159" s="16">
+        <v>795.19</v>
+      </c>
+      <c r="X159" s="16">
+        <v>1026.21</v>
+      </c>
+      <c r="Y159" s="16">
+        <v>-0.7</v>
+      </c>
+      <c r="Z159" s="16">
+        <v>8823.89</v>
+      </c>
+      <c r="AA159" s="16">
+        <v>202.85</v>
+      </c>
+    </row>
+    <row r="160" ht="18.75" spans="18:27">
+      <c r="R160" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S160" s="16">
+        <v>3.61</v>
+      </c>
+      <c r="T160" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U160" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V160" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W160" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="X160" s="16">
+        <v>680.99</v>
+      </c>
+      <c r="Y160" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="Z160" s="16">
+        <v>220.88</v>
+      </c>
+      <c r="AA160" s="16">
+        <v>220.88</v>
+      </c>
+    </row>
+    <row r="161" ht="18.75" spans="18:27">
+      <c r="R161" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S161" s="16">
+        <v>3.62</v>
+      </c>
+      <c r="T161" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="U161" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V161" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W161" s="16">
+        <v>77.28</v>
+      </c>
+      <c r="X161" s="16">
+        <v>682.25</v>
+      </c>
+      <c r="Y161" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="Z161" s="16">
+        <v>685.66</v>
+      </c>
+      <c r="AA161" s="16">
+        <v>237.34</v>
+      </c>
+    </row>
+    <row r="162" ht="18.75" spans="18:27">
+      <c r="R162" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S162" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="T162" s="16">
+        <v>1.72</v>
+      </c>
+      <c r="U162" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V162" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W162" s="16">
+        <v>141.27</v>
+      </c>
+      <c r="X162" s="16">
+        <v>689.5</v>
+      </c>
+      <c r="Y162" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="Z162" s="16">
+        <v>1162.04</v>
+      </c>
+      <c r="AA162" s="16">
+        <v>243.22</v>
+      </c>
+    </row>
+    <row r="163" ht="18.75" spans="18:27">
+      <c r="R163" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S163" s="16">
+        <v>3.84</v>
+      </c>
+      <c r="T163" s="16">
+        <v>2.41</v>
+      </c>
+      <c r="U163" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V163" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W163" s="16">
+        <v>205.94</v>
+      </c>
+      <c r="X163" s="16">
+        <v>702.75</v>
+      </c>
+      <c r="Y163" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="Z163" s="16">
+        <v>1666.54</v>
+      </c>
+      <c r="AA163" s="16">
+        <v>248.94</v>
+      </c>
+    </row>
+    <row r="164" ht="18.75" spans="18:27">
+      <c r="R164" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S164" s="16">
+        <v>4.05</v>
+      </c>
+      <c r="T164" s="16">
+        <v>3.12</v>
+      </c>
+      <c r="U164" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V164" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W164" s="16">
+        <v>271.85</v>
+      </c>
+      <c r="X164" s="16">
+        <v>722.06</v>
+      </c>
+      <c r="Y164" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="Z164" s="16">
+        <v>2216.38</v>
+      </c>
+      <c r="AA164" s="16">
+        <v>255.74</v>
+      </c>
+    </row>
+    <row r="165" ht="18.75" spans="18:27">
+      <c r="R165" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S165" s="16">
+        <v>4.32</v>
+      </c>
+      <c r="T165" s="16">
+        <v>3.84</v>
+      </c>
+      <c r="U165" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V165" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W165" s="16">
+        <v>339.57</v>
+      </c>
+      <c r="X165" s="16">
+        <v>747.56</v>
+      </c>
+      <c r="Y165" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="Z165" s="16">
+        <v>2830.07</v>
+      </c>
+      <c r="AA165" s="16">
+        <v>265.32</v>
+      </c>
+    </row>
+    <row r="166" ht="18.75" spans="18:27">
+      <c r="R166" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S166" s="16">
+        <v>4.66</v>
+      </c>
+      <c r="T166" s="16">
+        <v>4.59</v>
+      </c>
+      <c r="U166" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V166" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W166" s="16">
+        <v>409.69</v>
+      </c>
+      <c r="X166" s="16">
+        <v>779.41</v>
+      </c>
+      <c r="Y166" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="Z166" s="16">
+        <v>3528.03</v>
+      </c>
+      <c r="AA166" s="16">
+        <v>276.71</v>
+      </c>
+    </row>
+    <row r="167" ht="18.75" spans="18:27">
+      <c r="R167" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S167" s="16">
+        <v>5.07</v>
+      </c>
+      <c r="T167" s="16">
+        <v>5.36</v>
+      </c>
+      <c r="U167" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V167" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W167" s="16">
+        <v>482.79</v>
+      </c>
+      <c r="X167" s="16">
+        <v>817.84</v>
+      </c>
+      <c r="Y167" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="Z167" s="16">
+        <v>4333.31</v>
+      </c>
+      <c r="AA167" s="16">
+        <v>291.04</v>
+      </c>
+    </row>
+    <row r="168" ht="18.75" spans="18:27">
+      <c r="R168" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S168" s="16">
+        <v>5.55</v>
+      </c>
+      <c r="T168" s="16">
+        <v>6.18</v>
+      </c>
+      <c r="U168" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V168" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W168" s="16">
+        <v>559.5</v>
+      </c>
+      <c r="X168" s="16">
+        <v>863.12</v>
+      </c>
+      <c r="Y168" s="16">
+        <v>-0.16</v>
+      </c>
+      <c r="Z168" s="16">
+        <v>5272.28</v>
+      </c>
+      <c r="AA168" s="16">
+        <v>307.12</v>
+      </c>
+    </row>
+    <row r="169" ht="18.75" spans="18:27">
+      <c r="R169" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S169" s="16">
+        <v>6.11</v>
+      </c>
+      <c r="T169" s="16">
+        <v>7.05</v>
+      </c>
+      <c r="U169" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V169" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W169" s="16">
+        <v>640.45</v>
+      </c>
+      <c r="X169" s="16">
+        <v>915.6</v>
+      </c>
+      <c r="Y169" s="16">
+        <v>-0.34</v>
+      </c>
+      <c r="Z169" s="16">
+        <v>6375.59</v>
+      </c>
+      <c r="AA169" s="16">
+        <v>325.56</v>
+      </c>
+    </row>
+    <row r="170" ht="18.75" spans="18:27">
+      <c r="R170" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S170" s="16">
+        <v>6.75</v>
+      </c>
+      <c r="T170" s="16">
+        <v>7.96</v>
+      </c>
+      <c r="U170" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V170" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W170" s="16">
+        <v>726.33</v>
+      </c>
+      <c r="X170" s="16">
+        <v>975.67</v>
+      </c>
+      <c r="Y170" s="16">
+        <v>-0.54</v>
+      </c>
+      <c r="Z170" s="16">
+        <v>7679.09</v>
+      </c>
+      <c r="AA170" s="16">
+        <v>347.3</v>
+      </c>
+    </row>
+    <row r="171" ht="18.75" spans="18:27">
+      <c r="R171" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S171" s="16">
+        <v>7.48</v>
+      </c>
+      <c r="T171" s="16">
+        <v>8.94</v>
+      </c>
+      <c r="U171" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V171" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W171" s="16">
+        <v>817.84</v>
+      </c>
+      <c r="X171" s="16">
+        <v>1043.79</v>
+      </c>
+      <c r="Y171" s="16">
+        <v>-0.76</v>
+      </c>
+      <c r="Z171" s="16">
+        <v>9225.03</v>
+      </c>
+      <c r="AA171" s="16">
+        <v>371.48</v>
+      </c>
+    </row>
+    <row r="172" ht="18.75" spans="18:27">
+      <c r="R172" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S172" s="16">
+        <v>3.61</v>
+      </c>
+      <c r="T172" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U172" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V172" s="16">
+        <v>44.97</v>
+      </c>
+      <c r="W172" s="16">
+        <v>28.41</v>
+      </c>
+      <c r="X172" s="16">
+        <v>680.99</v>
+      </c>
+      <c r="Y172" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="Z172" s="16">
+        <v>329.83</v>
+      </c>
+      <c r="AA172" s="16">
+        <v>329.83</v>
+      </c>
+    </row>
+    <row r="173" ht="18.75" spans="18:27">
+      <c r="R173" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S173" s="16">
+        <v>3.64</v>
+      </c>
+      <c r="T173" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="U173" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V173" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W173" s="16">
+        <v>92.28</v>
+      </c>
+      <c r="X173" s="16">
+        <v>683.66</v>
+      </c>
+      <c r="Y173" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="Z173" s="16">
+        <v>796.21</v>
+      </c>
+      <c r="AA173" s="16">
+        <v>345.02</v>
+      </c>
+    </row>
+    <row r="174" ht="18.75" spans="18:27">
+      <c r="R174" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S174" s="16">
+        <v>3.73</v>
+      </c>
+      <c r="T174" s="16">
+        <v>1.88</v>
+      </c>
+      <c r="U174" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V174" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W174" s="16">
+        <v>156.4</v>
+      </c>
+      <c r="X174" s="16">
+        <v>692.31</v>
+      </c>
+      <c r="Y174" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="Z174" s="16">
+        <v>1278.03</v>
+      </c>
+      <c r="AA174" s="16">
+        <v>353.5</v>
+      </c>
+    </row>
+    <row r="175" ht="18.75" spans="18:27">
+      <c r="R175" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S175" s="16">
+        <v>3.89</v>
+      </c>
+      <c r="T175" s="16">
+        <v>2.58</v>
+      </c>
+      <c r="U175" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V175" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W175" s="16">
+        <v>221.34</v>
+      </c>
+      <c r="X175" s="16">
+        <v>706.98</v>
+      </c>
+      <c r="Y175" s="16">
+        <v>0.35</v>
+      </c>
+      <c r="Z175" s="16">
+        <v>1791.94</v>
+      </c>
+      <c r="AA175" s="16">
+        <v>361.17</v>
+      </c>
+    </row>
+    <row r="176" ht="18.75" spans="18:27">
+      <c r="R176" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S176" s="16">
+        <v>4.11</v>
+      </c>
+      <c r="T176" s="16">
+        <v>3.28</v>
+      </c>
+      <c r="U176" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V176" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W176" s="16">
+        <v>287.65</v>
+      </c>
+      <c r="X176" s="16">
+        <v>727.74</v>
+      </c>
+      <c r="Y176" s="16">
+        <v>0.28</v>
+      </c>
+      <c r="Z176" s="16">
+        <v>2355.44</v>
+      </c>
+      <c r="AA176" s="16">
+        <v>373.42</v>
+      </c>
+    </row>
+    <row r="177" ht="18.75" spans="18:27">
+      <c r="R177" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S177" s="16">
+        <v>4.4</v>
+      </c>
+      <c r="T177" s="16">
+        <v>4.01</v>
+      </c>
+      <c r="U177" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V177" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W177" s="16">
+        <v>355.91</v>
+      </c>
+      <c r="X177" s="16">
+        <v>754.72</v>
+      </c>
+      <c r="Y177" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="Z177" s="16">
+        <v>2987.42</v>
+      </c>
+      <c r="AA177" s="16">
+        <v>387.4</v>
+      </c>
+    </row>
+    <row r="178" ht="18.75" spans="18:27">
+      <c r="R178" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S178" s="16">
+        <v>4.75</v>
+      </c>
+      <c r="T178" s="16">
+        <v>4.77</v>
+      </c>
+      <c r="U178" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V178" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W178" s="16">
+        <v>426.69</v>
+      </c>
+      <c r="X178" s="16">
+        <v>788.1</v>
+      </c>
+      <c r="Y178" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="Z178" s="16">
+        <v>3708.89</v>
+      </c>
+      <c r="AA178" s="16">
+        <v>404.32</v>
+      </c>
+    </row>
+    <row r="179" ht="18.75" spans="18:27">
+      <c r="R179" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S179" s="16">
+        <v>5.18</v>
+      </c>
+      <c r="T179" s="16">
+        <v>5.55</v>
+      </c>
+      <c r="U179" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V179" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W179" s="16">
+        <v>500.61</v>
+      </c>
+      <c r="X179" s="16">
+        <v>828.12</v>
+      </c>
+      <c r="Y179" s="16">
+        <v>-0.05</v>
+      </c>
+      <c r="Z179" s="16">
+        <v>4543.6</v>
+      </c>
+      <c r="AA179" s="16">
+        <v>425.71</v>
+      </c>
+    </row>
+    <row r="180" ht="18.75" spans="18:27">
+      <c r="R180" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S180" s="16">
+        <v>5.68</v>
+      </c>
+      <c r="T180" s="16">
+        <v>6.38</v>
+      </c>
+      <c r="U180" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V180" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W180" s="16">
+        <v>578.28</v>
+      </c>
+      <c r="X180" s="16">
+        <v>875.08</v>
+      </c>
+      <c r="Y180" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="Z180" s="16">
+        <v>5518.89</v>
+      </c>
+      <c r="AA180" s="16">
+        <v>449.82</v>
+      </c>
+    </row>
+    <row r="181" ht="18.75" spans="18:27">
+      <c r="R181" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S181" s="16">
+        <v>6.26</v>
+      </c>
+      <c r="T181" s="16">
+        <v>7.26</v>
+      </c>
+      <c r="U181" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V181" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W181" s="16">
+        <v>660.36</v>
+      </c>
+      <c r="X181" s="16">
+        <v>929.32</v>
+      </c>
+      <c r="Y181" s="16">
+        <v>-0.38</v>
+      </c>
+      <c r="Z181" s="16">
+        <v>6666.53</v>
+      </c>
+      <c r="AA181" s="16">
+        <v>477.49</v>
+      </c>
+    </row>
+    <row r="182" ht="18.75" spans="18:27">
+      <c r="R182" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S182" s="16">
+        <v>6.92</v>
+      </c>
+      <c r="T182" s="16">
+        <v>8.19</v>
+      </c>
+      <c r="U182" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V182" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W182" s="16">
+        <v>747.52</v>
+      </c>
+      <c r="X182" s="16">
+        <v>991.25</v>
+      </c>
+      <c r="Y182" s="16">
+        <v>-0.59</v>
+      </c>
+      <c r="Z182" s="16">
+        <v>8023.79</v>
+      </c>
+      <c r="AA182" s="16">
+        <v>509.45</v>
+      </c>
+    </row>
+    <row r="183" ht="18.75" spans="18:27">
+      <c r="R183" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S183" s="16">
+        <v>2.37</v>
+      </c>
+      <c r="T183" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U183" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V183" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W183" s="16">
+        <v>-1.6</v>
+      </c>
+      <c r="X183" s="16">
+        <v>564.69</v>
+      </c>
+      <c r="Y183" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="Z183" s="16">
+        <v>113.91</v>
+      </c>
+      <c r="AA183" s="16">
+        <v>113.91</v>
+      </c>
+    </row>
+    <row r="184" ht="18.75" spans="18:27">
+      <c r="R184" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S184" s="16">
+        <v>2.37</v>
+      </c>
+      <c r="T184" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="U184" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V184" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W184" s="16">
+        <v>51.36</v>
+      </c>
+      <c r="X184" s="16">
+        <v>564.54</v>
+      </c>
+      <c r="Y184" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="Z184" s="16">
+        <v>432.7</v>
+      </c>
+      <c r="AA184" s="16">
+        <v>113.87</v>
+      </c>
+    </row>
+    <row r="185" ht="18.75" spans="18:27">
+      <c r="R185" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S185" s="16">
+        <v>2.42</v>
+      </c>
+      <c r="T185" s="16">
+        <v>1.33</v>
+      </c>
+      <c r="U185" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V185" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W185" s="16">
+        <v>104.31</v>
+      </c>
+      <c r="X185" s="16">
+        <v>569.36</v>
+      </c>
+      <c r="Y185" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="Z185" s="16">
+        <v>756.76</v>
+      </c>
+      <c r="AA185" s="16">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="186" ht="18.75" spans="18:27">
+      <c r="R186" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S186" s="16">
+        <v>2.52</v>
+      </c>
+      <c r="T186" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="U186" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V186" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W186" s="16">
+        <v>157.71</v>
+      </c>
+      <c r="X186" s="16">
+        <v>579.14</v>
+      </c>
+      <c r="Y186" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="Z186" s="16">
+        <v>1097.38</v>
+      </c>
+      <c r="AA186" s="16">
+        <v>115.51</v>
+      </c>
+    </row>
+    <row r="187" ht="18.75" spans="18:27">
+      <c r="R187" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S187" s="16">
+        <v>2.68</v>
+      </c>
+      <c r="T187" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="U187" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V187" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W187" s="16">
+        <v>212.03</v>
+      </c>
+      <c r="X187" s="16">
+        <v>593.93</v>
+      </c>
+      <c r="Y187" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="Z187" s="16">
+        <v>1466.22</v>
+      </c>
+      <c r="AA187" s="16">
+        <v>118.24</v>
+      </c>
+    </row>
+    <row r="188" ht="18.75" spans="18:27">
+      <c r="R188" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S188" s="16">
+        <v>2.89</v>
+      </c>
+      <c r="T188" s="16">
+        <v>3.07</v>
+      </c>
+      <c r="U188" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V188" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W188" s="16">
+        <v>267.74</v>
+      </c>
+      <c r="X188" s="16">
+        <v>613.82</v>
+      </c>
+      <c r="Y188" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="Z188" s="16">
+        <v>1875.74</v>
+      </c>
+      <c r="AA188" s="16">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="189" ht="18.75" spans="18:27">
+      <c r="R189" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S189" s="16">
+        <v>3.16</v>
+      </c>
+      <c r="T189" s="16">
+        <v>3.69</v>
+      </c>
+      <c r="U189" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V189" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W189" s="16">
+        <v>325.31</v>
+      </c>
+      <c r="X189" s="16">
+        <v>638.93</v>
+      </c>
+      <c r="Y189" s="16">
+        <v>0.58</v>
+      </c>
+      <c r="Z189" s="16">
+        <v>2339.62</v>
+      </c>
+      <c r="AA189" s="16">
+        <v>126.81</v>
+      </c>
+    </row>
+    <row r="190" ht="18.75" spans="18:27">
+      <c r="R190" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S190" s="16">
+        <v>3.49</v>
+      </c>
+      <c r="T190" s="16">
+        <v>4.32</v>
+      </c>
+      <c r="U190" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V190" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W190" s="16">
+        <v>385.23</v>
+      </c>
+      <c r="X190" s="16">
+        <v>669.44</v>
+      </c>
+      <c r="Y190" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="Z190" s="16">
+        <v>2873.17</v>
+      </c>
+      <c r="AA190" s="16">
+        <v>133.02</v>
+      </c>
+    </row>
+    <row r="191" ht="18.75" spans="18:27">
+      <c r="R191" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S191" s="16">
+        <v>3.87</v>
+      </c>
+      <c r="T191" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="U191" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V191" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W191" s="16">
+        <v>448.02</v>
+      </c>
+      <c r="X191" s="16">
+        <v>705.57</v>
+      </c>
+      <c r="Y191" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="Z191" s="16">
+        <v>3493.91</v>
+      </c>
+      <c r="AA191" s="16">
+        <v>140.04</v>
+      </c>
+    </row>
+    <row r="192" ht="18.75" spans="18:27">
+      <c r="R192" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S192" s="16">
+        <v>4.32</v>
+      </c>
+      <c r="T192" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="U192" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V192" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W192" s="16">
+        <v>514.2</v>
+      </c>
+      <c r="X192" s="16">
+        <v>747.6</v>
+      </c>
+      <c r="Y192" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="Z192" s="16">
+        <v>4222.12</v>
+      </c>
+      <c r="AA192" s="16">
+        <v>148.14</v>
+      </c>
+    </row>
+    <row r="193" ht="18.75" spans="18:27">
+      <c r="R193" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S193" s="16">
+        <v>4.83</v>
+      </c>
+      <c r="T193" s="16">
+        <v>6.45</v>
+      </c>
+      <c r="U193" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V193" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W193" s="16">
+        <v>584.32</v>
+      </c>
+      <c r="X193" s="16">
+        <v>795.82</v>
+      </c>
+      <c r="Y193" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="Z193" s="16">
+        <v>5081.48</v>
+      </c>
+      <c r="AA193" s="16">
+        <v>157.57</v>
+      </c>
+    </row>
+    <row r="194" ht="18.75" spans="18:27">
+      <c r="R194" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S194" s="16">
+        <v>5.42</v>
+      </c>
+      <c r="T194" s="16">
+        <v>7.24</v>
+      </c>
+      <c r="U194" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V194" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W194" s="16">
+        <v>658.96</v>
+      </c>
+      <c r="X194" s="16">
+        <v>850.63</v>
+      </c>
+      <c r="Y194" s="16">
+        <v>-0.12</v>
+      </c>
+      <c r="Z194" s="16">
+        <v>6099.87</v>
+      </c>
+      <c r="AA194" s="16">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="195" ht="18.75" spans="18:27">
+      <c r="R195" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S195" s="16">
+        <v>6.08</v>
+      </c>
+      <c r="T195" s="16">
+        <v>8.09</v>
+      </c>
+      <c r="U195" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V195" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W195" s="16">
+        <v>738.75</v>
+      </c>
+      <c r="X195" s="16">
+        <v>912.44</v>
+      </c>
+      <c r="Y195" s="16">
+        <v>-0.33</v>
+      </c>
+      <c r="Z195" s="16">
+        <v>7310.24</v>
+      </c>
+      <c r="AA195" s="16">
+        <v>180.72</v>
+      </c>
+    </row>
+    <row r="196" ht="18.75" spans="18:27">
+      <c r="R196" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S196" s="16">
+        <v>6.82</v>
+      </c>
+      <c r="T196" s="16">
+        <v>9.01</v>
+      </c>
+      <c r="U196" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V196" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W196" s="16">
+        <v>824.33</v>
+      </c>
+      <c r="X196" s="16">
+        <v>981.72</v>
+      </c>
+      <c r="Y196" s="16">
+        <v>-0.56</v>
+      </c>
+      <c r="Z196" s="16">
+        <v>8751.75</v>
+      </c>
+      <c r="AA196" s="16">
+        <v>194.27</v>
+      </c>
+    </row>
+    <row r="197" ht="18.75" spans="18:27">
+      <c r="R197" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S197" s="16">
+        <v>7.64</v>
+      </c>
+      <c r="T197" s="16">
+        <v>9.99</v>
+      </c>
+      <c r="U197" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V197" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W197" s="16">
+        <v>916.41</v>
+      </c>
+      <c r="X197" s="16">
+        <v>1059.04</v>
+      </c>
+      <c r="Y197" s="16">
+        <v>-0.81</v>
+      </c>
+      <c r="Z197" s="16">
+        <v>10470.95</v>
+      </c>
+      <c r="AA197" s="16">
+        <v>209.63</v>
+      </c>
+    </row>
+    <row r="198" ht="18.75" spans="18:27">
+      <c r="R198" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S198" s="16">
+        <v>2.37</v>
+      </c>
+      <c r="T198" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U198" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V198" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W198" s="16">
+        <v>13.4</v>
+      </c>
+      <c r="X198" s="16">
+        <v>564.69</v>
+      </c>
+      <c r="Y198" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="Z198" s="16">
+        <v>204.26</v>
+      </c>
+      <c r="AA198" s="16">
+        <v>204.26</v>
+      </c>
+    </row>
+    <row r="199" ht="17" customHeight="1" spans="18:27">
+      <c r="R199" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S199" s="16">
+        <v>2.38</v>
+      </c>
+      <c r="T199" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="U199" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V199" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W199" s="16">
+        <v>66.37</v>
+      </c>
+      <c r="X199" s="16">
+        <v>565.95</v>
+      </c>
+      <c r="Y199" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="Z199" s="16">
+        <v>524.02</v>
+      </c>
+      <c r="AA199" s="16">
+        <v>205.05</v>
+      </c>
+    </row>
+    <row r="200" ht="18.75" spans="18:27">
+      <c r="R200" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S200" s="16">
+        <v>2.45</v>
+      </c>
+      <c r="T200" s="16">
+        <v>1.49</v>
+      </c>
+      <c r="U200" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V200" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W200" s="16">
+        <v>119.45</v>
+      </c>
+      <c r="X200" s="16">
+        <v>572.17</v>
+      </c>
+      <c r="Y200" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="Z200" s="16">
+        <v>852.25</v>
+      </c>
+      <c r="AA200" s="16">
+        <v>205.91</v>
+      </c>
+    </row>
+    <row r="201" ht="18.75" spans="18:27">
+      <c r="R201" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S201" s="16">
+        <v>2.57</v>
+      </c>
+      <c r="T201" s="16">
+        <v>2.06</v>
+      </c>
+      <c r="U201" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V201" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W201" s="16">
+        <v>173.11</v>
+      </c>
+      <c r="X201" s="16">
+        <v>583.37</v>
+      </c>
+      <c r="Y201" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="Z201" s="16">
+        <v>1200.31</v>
+      </c>
+      <c r="AA201" s="16">
+        <v>209.76</v>
+      </c>
+    </row>
+    <row r="202" ht="18.75" spans="18:27">
+      <c r="R202" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S202" s="16">
+        <v>2.74</v>
+      </c>
+      <c r="T202" s="16">
+        <v>2.65</v>
+      </c>
+      <c r="U202" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V202" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W202" s="16">
+        <v>227.83</v>
+      </c>
+      <c r="X202" s="16">
+        <v>599.61</v>
+      </c>
+      <c r="Y202" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="Z202" s="16">
+        <v>1580.07</v>
+      </c>
+      <c r="AA202" s="16">
+        <v>214.65</v>
+      </c>
+    </row>
+    <row r="203" ht="18.75" spans="18:27">
+      <c r="R203" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S203" s="16">
+        <v>2.97</v>
+      </c>
+      <c r="T203" s="16">
+        <v>3.25</v>
+      </c>
+      <c r="U203" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V203" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W203" s="16">
+        <v>284.07</v>
+      </c>
+      <c r="X203" s="16">
+        <v>620.98</v>
+      </c>
+      <c r="Y203" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="Z203" s="16">
+        <v>2004.32</v>
+      </c>
+      <c r="AA203" s="16">
+        <v>222.02</v>
+      </c>
+    </row>
+    <row r="204" ht="18.75" spans="18:27">
+      <c r="R204" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S204" s="16">
+        <v>3.25</v>
+      </c>
+      <c r="T204" s="16">
+        <v>3.87</v>
+      </c>
+      <c r="U204" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V204" s="16">
+        <v>44.98</v>
+      </c>
+      <c r="W204" s="16">
+        <v>342.31</v>
+      </c>
+      <c r="X204" s="16">
+        <v>647.62</v>
+      </c>
+      <c r="Y204" s="16">
+        <v>0.55</v>
+      </c>
+      <c r="Z204" s="16">
+        <v>2487.18</v>
+      </c>
+      <c r="AA204" s="16">
+        <v>231.37</v>
+      </c>
+    </row>
+    <row r="205" ht="18.75" spans="18:27">
+      <c r="R205" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S205" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="T205" s="16">
+        <v>4.51</v>
+      </c>
+      <c r="U205" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V205" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W205" s="16">
+        <v>403.05</v>
+      </c>
+      <c r="X205" s="16">
+        <v>679.73</v>
+      </c>
+      <c r="Y205" s="16">
+        <v>0.44</v>
+      </c>
+      <c r="Z205" s="16">
+        <v>3044.56</v>
+      </c>
+      <c r="AA205" s="16">
+        <v>243.02</v>
+      </c>
+    </row>
+    <row r="206" ht="18.75" spans="18:27">
+      <c r="R206" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S206" s="16">
+        <v>4</v>
+      </c>
+      <c r="T206" s="16">
+        <v>5.19</v>
+      </c>
+      <c r="U206" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V206" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W206" s="16">
+        <v>466.81</v>
+      </c>
+      <c r="X206" s="16">
+        <v>717.53</v>
+      </c>
+      <c r="Y206" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="Z206" s="16">
+        <v>3694.75</v>
+      </c>
+      <c r="AA206" s="16">
+        <v>256.28</v>
+      </c>
+    </row>
+    <row r="207" ht="18.75" spans="18:27">
+      <c r="R207" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S207" s="16">
+        <v>4.47</v>
+      </c>
+      <c r="T207" s="16">
+        <v>5.91</v>
+      </c>
+      <c r="U207" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V207" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W207" s="16">
+        <v>534.11</v>
+      </c>
+      <c r="X207" s="16">
+        <v>761.32</v>
+      </c>
+      <c r="Y207" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="Z207" s="16">
+        <v>4458.92</v>
+      </c>
+      <c r="AA207" s="16">
+        <v>271.61</v>
+      </c>
+    </row>
+    <row r="208" ht="18.75" spans="18:27">
+      <c r="R208" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S208" s="16">
+        <v>5</v>
+      </c>
+      <c r="T208" s="16">
+        <v>6.67</v>
+      </c>
+      <c r="U208" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V208" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W208" s="16">
+        <v>605.51</v>
+      </c>
+      <c r="X208" s="16">
+        <v>811.41</v>
+      </c>
+      <c r="Y208" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="Z208" s="16">
+        <v>5361.93</v>
+      </c>
+      <c r="AA208" s="16">
+        <v>289.4</v>
+      </c>
+    </row>
+    <row r="209" ht="18.75" spans="18:27">
+      <c r="R209" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S209" s="16">
+        <v>5.61</v>
+      </c>
+      <c r="T209" s="16">
+        <v>7.48</v>
+      </c>
+      <c r="U209" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V209" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W209" s="16">
+        <v>681.62</v>
+      </c>
+      <c r="X209" s="16">
+        <v>868.2</v>
+      </c>
+      <c r="Y209" s="16">
+        <v>-0.18</v>
+      </c>
+      <c r="Z209" s="16">
+        <v>6433.05</v>
+      </c>
+      <c r="AA209" s="16">
+        <v>309.61</v>
+      </c>
+    </row>
+    <row r="210" ht="18.75" spans="18:27">
+      <c r="R210" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S210" s="16">
+        <v>6.29</v>
+      </c>
+      <c r="T210" s="16">
+        <v>8.35</v>
+      </c>
+      <c r="U210" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V210" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W210" s="16">
+        <v>763.05</v>
+      </c>
+      <c r="X210" s="16">
+        <v>932.14</v>
+      </c>
+      <c r="Y210" s="16">
+        <v>-0.39</v>
+      </c>
+      <c r="Z210" s="16">
+        <v>7706.94</v>
+      </c>
+      <c r="AA210" s="16">
+        <v>332.28</v>
+      </c>
+    </row>
+    <row r="211" ht="18.75" spans="18:27">
+      <c r="R211" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S211" s="16">
+        <v>7.05</v>
+      </c>
+      <c r="T211" s="16">
+        <v>9.28</v>
+      </c>
+      <c r="U211" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V211" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W211" s="16">
+        <v>850.48</v>
+      </c>
+      <c r="X211" s="16">
+        <v>1003.7</v>
+      </c>
+      <c r="Y211" s="16">
+        <v>-0.63</v>
+      </c>
+      <c r="Z211" s="16">
+        <v>9224.77</v>
+      </c>
+      <c r="AA211" s="16">
+        <v>357.86</v>
+      </c>
+    </row>
+    <row r="212" ht="18.75" spans="18:27">
+      <c r="R212" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S212" s="16">
+        <v>2.37</v>
+      </c>
+      <c r="T212" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U212" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V212" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W212" s="16">
+        <v>28.41</v>
+      </c>
+      <c r="X212" s="16">
+        <v>564.69</v>
+      </c>
+      <c r="Y212" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="Z212" s="16">
+        <v>294.61</v>
+      </c>
+      <c r="AA212" s="16">
+        <v>294.61</v>
+      </c>
+    </row>
+    <row r="213" ht="18.75" spans="18:27">
+      <c r="R213" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S213" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="T213" s="16">
+        <v>1.08</v>
+      </c>
+      <c r="U213" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V213" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W213" s="16">
+        <v>81.37</v>
+      </c>
+      <c r="X213" s="16">
+        <v>567.35</v>
+      </c>
+      <c r="Y213" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="Z213" s="16">
+        <v>615.8</v>
+      </c>
+      <c r="AA213" s="16">
+        <v>296.5</v>
+      </c>
+    </row>
+    <row r="214" ht="18.75" spans="18:27">
+      <c r="R214" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S214" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="T214" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="U214" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V214" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W214" s="16">
+        <v>134.58</v>
+      </c>
+      <c r="X214" s="16">
+        <v>574.99</v>
+      </c>
+      <c r="Y214" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="Z214" s="16">
+        <v>948.64</v>
+      </c>
+      <c r="AA214" s="16">
+        <v>298.97</v>
+      </c>
+    </row>
+    <row r="215" ht="18.75" spans="18:27">
+      <c r="R215" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S215" s="16">
+        <v>2.61</v>
+      </c>
+      <c r="T215" s="16">
+        <v>2.23</v>
+      </c>
+      <c r="U215" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V215" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W215" s="16">
+        <v>188.51</v>
+      </c>
+      <c r="X215" s="16">
+        <v>587.61</v>
+      </c>
+      <c r="Y215" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="Z215" s="16">
+        <v>1304.62</v>
+      </c>
+      <c r="AA215" s="16">
+        <v>304.22</v>
+      </c>
+    </row>
+    <row r="216" ht="18.75" spans="18:27">
+      <c r="R216" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S216" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="T216" s="16">
+        <v>2.81</v>
+      </c>
+      <c r="U216" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V216" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W216" s="16">
+        <v>243.63</v>
+      </c>
+      <c r="X216" s="16">
+        <v>605.29</v>
+      </c>
+      <c r="Y216" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="Z216" s="16">
+        <v>1695.83</v>
+      </c>
+      <c r="AA216" s="16">
+        <v>313.82</v>
+      </c>
+    </row>
+    <row r="217" ht="18.75" spans="18:27">
+      <c r="R217" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S217" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="T217" s="16">
+        <v>3.42</v>
+      </c>
+      <c r="U217" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V217" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W217" s="16">
+        <v>300.4</v>
+      </c>
+      <c r="X217" s="16">
+        <v>628.14</v>
+      </c>
+      <c r="Y217" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="Z217" s="16">
+        <v>2135.4</v>
+      </c>
+      <c r="AA217" s="16">
+        <v>324.68</v>
+      </c>
+    </row>
+    <row r="218" ht="18.75" spans="18:27">
+      <c r="R218" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S218" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="T218" s="16">
+        <v>4.05</v>
+      </c>
+      <c r="U218" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V218" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W218" s="16">
+        <v>359.31</v>
+      </c>
+      <c r="X218" s="16">
+        <v>656.32</v>
+      </c>
+      <c r="Y218" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="Z218" s="16">
+        <v>2637.89</v>
+      </c>
+      <c r="AA218" s="16">
+        <v>338.69</v>
+      </c>
+    </row>
+    <row r="219" ht="18.75" spans="18:27">
+      <c r="R219" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S219" s="16">
+        <v>3.71</v>
+      </c>
+      <c r="T219" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="U219" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V219" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W219" s="16">
+        <v>420.87</v>
+      </c>
+      <c r="X219" s="16">
+        <v>690.02</v>
+      </c>
+      <c r="Y219" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="Z219" s="16">
+        <v>3219.87</v>
+      </c>
+      <c r="AA219" s="16">
+        <v>356.24</v>
+      </c>
+    </row>
+    <row r="220" ht="18.75" spans="18:27">
+      <c r="R220" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S220" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="T220" s="16">
+        <v>5.39</v>
+      </c>
+      <c r="U220" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V220" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W220" s="16">
+        <v>485.59</v>
+      </c>
+      <c r="X220" s="16">
+        <v>729.49</v>
+      </c>
+      <c r="Y220" s="16">
+        <v>0.28</v>
+      </c>
+      <c r="Z220" s="16">
+        <v>3900.37</v>
+      </c>
+      <c r="AA220" s="16">
+        <v>376.29</v>
+      </c>
+    </row>
+    <row r="221" ht="18.75" spans="18:27">
+      <c r="R221" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S221" s="16">
+        <v>4.61</v>
+      </c>
+      <c r="T221" s="16">
+        <v>6.12</v>
+      </c>
+      <c r="U221" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V221" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W221" s="16">
+        <v>554.01</v>
+      </c>
+      <c r="X221" s="16">
+        <v>775.04</v>
+      </c>
+      <c r="Y221" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="Z221" s="16">
+        <v>4701.55</v>
+      </c>
+      <c r="AA221" s="16">
+        <v>399.48</v>
+      </c>
+    </row>
+    <row r="222" ht="18.75" spans="18:27">
+      <c r="R222" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S222" s="16">
+        <v>5.17</v>
+      </c>
+      <c r="T222" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="U222" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V222" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W222" s="16">
+        <v>626.7</v>
+      </c>
+      <c r="X222" s="16">
+        <v>827</v>
+      </c>
+      <c r="Y222" s="16">
+        <v>-0.04</v>
+      </c>
+      <c r="Z222" s="16">
+        <v>5649.43</v>
+      </c>
+      <c r="AA222" s="16">
+        <v>425.75</v>
+      </c>
+    </row>
+    <row r="223" ht="18.75" spans="18:27">
+      <c r="R223" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S223" s="16">
+        <v>5.79</v>
+      </c>
+      <c r="T223" s="16">
+        <v>7.73</v>
+      </c>
+      <c r="U223" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V223" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W223" s="16">
+        <v>704.27</v>
+      </c>
+      <c r="X223" s="16">
+        <v>885.78</v>
+      </c>
+      <c r="Y223" s="16">
+        <v>-0.24</v>
+      </c>
+      <c r="Z223" s="16">
+        <v>6774.73</v>
+      </c>
+      <c r="AA223" s="16">
+        <v>455.74</v>
+      </c>
+    </row>
+    <row r="224" ht="18.75" spans="18:27">
+      <c r="R224" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S224" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="T224" s="16">
+        <v>8.61</v>
+      </c>
+      <c r="U224" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V224" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W224" s="16">
+        <v>787.35</v>
+      </c>
+      <c r="X224" s="16">
+        <v>951.84</v>
+      </c>
+      <c r="Y224" s="16">
+        <v>-0.46</v>
+      </c>
+      <c r="Z224" s="16">
+        <v>8113.84</v>
+      </c>
+      <c r="AA224" s="16">
+        <v>490.03</v>
+      </c>
+    </row>
+    <row r="225" ht="18.75" spans="18:27">
+      <c r="R225" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S225" s="16">
+        <v>7.29</v>
+      </c>
+      <c r="T225" s="16">
+        <v>9.56</v>
+      </c>
+      <c r="U225" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V225" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="W225" s="16">
+        <v>876.63</v>
+      </c>
+      <c r="X225" s="16">
+        <v>1025.68</v>
+      </c>
+      <c r="Y225" s="16">
+        <v>-0.7</v>
+      </c>
+      <c r="Z225" s="16">
+        <v>9710.04</v>
+      </c>
+      <c r="AA225" s="16">
+        <v>528.16</v>
+      </c>
+    </row>
+    <row r="226" ht="18.75" spans="18:27">
+      <c r="R226" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S226" s="16">
+        <v>2.13</v>
+      </c>
+      <c r="T226" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U226" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V226" s="16">
+        <v>60</v>
+      </c>
+      <c r="W226" s="16">
+        <v>-6.26</v>
+      </c>
+      <c r="X226" s="16">
+        <v>542.18</v>
+      </c>
+      <c r="Y226" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="Z226" s="16">
+        <v>127.76</v>
+      </c>
+      <c r="AA226" s="16">
+        <v>127.76</v>
+      </c>
+    </row>
+    <row r="227" ht="18.75" spans="18:27">
+      <c r="R227" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S227" s="16">
+        <v>2.12</v>
+      </c>
+      <c r="T227" s="16">
+        <v>0.74</v>
+      </c>
+      <c r="U227" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V227" s="16">
+        <v>60</v>
+      </c>
+      <c r="W227" s="16">
+        <v>44.59</v>
+      </c>
+      <c r="X227" s="16">
+        <v>541.59</v>
+      </c>
+      <c r="Y227" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="Z227" s="16">
+        <v>421.44</v>
+      </c>
+      <c r="AA227" s="16">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="228" ht="18.75" spans="18:27">
+      <c r="R228" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S228" s="16">
+        <v>2.17</v>
+      </c>
+      <c r="T228" s="16">
+        <v>1.28</v>
+      </c>
+      <c r="U228" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V228" s="16">
+        <v>60</v>
+      </c>
+      <c r="W228" s="16">
+        <v>95.39</v>
+      </c>
+      <c r="X228" s="16">
+        <v>545.77</v>
+      </c>
+      <c r="Y228" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="Z228" s="16">
+        <v>719.02</v>
+      </c>
+      <c r="AA228" s="16">
+        <v>112.35</v>
+      </c>
+    </row>
+    <row r="229" ht="18.75" spans="18:27">
+      <c r="R229" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S229" s="16">
+        <v>2.26</v>
+      </c>
+      <c r="T229" s="16">
+        <v>1.83</v>
+      </c>
+      <c r="U229" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V229" s="16">
+        <v>60</v>
+      </c>
+      <c r="W229" s="16">
+        <v>146.58</v>
+      </c>
+      <c r="X229" s="16">
+        <v>554.72</v>
+      </c>
+      <c r="Y229" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="Z229" s="16">
+        <v>1030.87</v>
+      </c>
+      <c r="AA229" s="16">
+        <v>112.66</v>
+      </c>
+    </row>
+    <row r="230" ht="18.75" spans="18:27">
+      <c r="R230" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S230" s="16">
+        <v>2.41</v>
+      </c>
+      <c r="T230" s="16">
+        <v>2.38</v>
+      </c>
+      <c r="U230" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V230" s="16">
+        <v>60</v>
+      </c>
+      <c r="W230" s="16">
+        <v>198.61</v>
+      </c>
+      <c r="X230" s="16">
+        <v>568.47</v>
+      </c>
+      <c r="Y230" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="Z230" s="16">
+        <v>1367.7</v>
+      </c>
+      <c r="AA230" s="16">
+        <v>114.93</v>
+      </c>
+    </row>
+    <row r="231" ht="18.75" spans="18:27">
+      <c r="R231" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S231" s="16">
+        <v>2.61</v>
+      </c>
+      <c r="T231" s="16">
+        <v>2.95</v>
+      </c>
+      <c r="U231" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V231" s="16">
+        <v>60</v>
+      </c>
+      <c r="W231" s="16">
+        <v>251.92</v>
+      </c>
+      <c r="X231" s="16">
+        <v>587.1</v>
+      </c>
+      <c r="Y231" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="Z231" s="16">
+        <v>1740.89</v>
+      </c>
+      <c r="AA231" s="16">
+        <v>118.03</v>
+      </c>
+    </row>
+    <row r="232" ht="18.75" spans="18:27">
+      <c r="R232" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S232" s="16">
+        <v>2.86</v>
+      </c>
+      <c r="T232" s="16">
+        <v>3.54</v>
+      </c>
+      <c r="U232" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V232" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W232" s="16">
+        <v>306.99</v>
+      </c>
+      <c r="X232" s="16">
+        <v>610.73</v>
+      </c>
+      <c r="Y232" s="16">
+        <v>0.67</v>
+      </c>
+      <c r="Z232" s="16">
+        <v>2162.91</v>
+      </c>
+      <c r="AA232" s="16">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="233" ht="18.75" spans="18:27">
+      <c r="R233" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S233" s="16">
+        <v>3.17</v>
+      </c>
+      <c r="T233" s="16">
+        <v>4.15</v>
+      </c>
+      <c r="U233" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V233" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W233" s="16">
+        <v>364.27</v>
+      </c>
+      <c r="X233" s="16">
+        <v>639.52</v>
+      </c>
+      <c r="Y233" s="16">
+        <v>0.57</v>
+      </c>
+      <c r="Z233" s="16">
+        <v>2647.72</v>
+      </c>
+      <c r="AA233" s="16">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="234" ht="18.75" spans="18:27">
+      <c r="R234" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S234" s="16">
+        <v>2.13</v>
+      </c>
+      <c r="T234" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U234" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V234" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W234" s="16">
+        <v>8.74</v>
+      </c>
+      <c r="X234" s="16">
+        <v>542.18</v>
+      </c>
+      <c r="Y234" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="Z234" s="16">
+        <v>214.52</v>
+      </c>
+      <c r="AA234" s="16">
+        <v>214.52</v>
+      </c>
+    </row>
+    <row r="235" ht="18.75" spans="18:27">
+      <c r="R235" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S235" s="16">
+        <v>2.14</v>
+      </c>
+      <c r="T235" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="U235" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V235" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W235" s="16">
+        <v>59.6</v>
+      </c>
+      <c r="X235" s="16">
+        <v>543</v>
+      </c>
+      <c r="Y235" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="Z235" s="16">
+        <v>509</v>
+      </c>
+      <c r="AA235" s="16">
+        <v>203.6</v>
+      </c>
+    </row>
+    <row r="236" ht="18.75" spans="18:27">
+      <c r="R236" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S236" s="16">
+        <v>2.2</v>
+      </c>
+      <c r="T236" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="U236" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V236" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W236" s="16">
+        <v>110.53</v>
+      </c>
+      <c r="X236" s="16">
+        <v>548.59</v>
+      </c>
+      <c r="Y236" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="Z236" s="16">
+        <v>810.43</v>
+      </c>
+      <c r="AA236" s="16">
+        <v>201.21</v>
+      </c>
+    </row>
+    <row r="237" ht="18.75" spans="18:27">
+      <c r="R237" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S237" s="16">
+        <v>2.31</v>
+      </c>
+      <c r="T237" s="16">
+        <v>1.99</v>
+      </c>
+      <c r="U237" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V237" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W237" s="16">
+        <v>161.98</v>
+      </c>
+      <c r="X237" s="16">
+        <v>558.96</v>
+      </c>
+      <c r="Y237" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="Z237" s="16">
+        <v>1129.29</v>
+      </c>
+      <c r="AA237" s="16">
+        <v>204.29</v>
+      </c>
+    </row>
+    <row r="238" ht="18.75" spans="18:27">
+      <c r="R238" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S238" s="16">
+        <v>2.47</v>
+      </c>
+      <c r="T238" s="16">
+        <v>2.55</v>
+      </c>
+      <c r="U238" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V238" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W238" s="16">
+        <v>214.4</v>
+      </c>
+      <c r="X238" s="16">
+        <v>574.15</v>
+      </c>
+      <c r="Y238" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="Z238" s="16">
+        <v>1476.45</v>
+      </c>
+      <c r="AA238" s="16">
+        <v>208.44</v>
+      </c>
+    </row>
+    <row r="239" ht="18.75" spans="18:27">
+      <c r="R239" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S239" s="16">
+        <v>2.69</v>
+      </c>
+      <c r="T239" s="16">
+        <v>3.13</v>
+      </c>
+      <c r="U239" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V239" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W239" s="16">
+        <v>268.26</v>
+      </c>
+      <c r="X239" s="16">
+        <v>594.26</v>
+      </c>
+      <c r="Y239" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="Z239" s="16">
+        <v>1863.61</v>
+      </c>
+      <c r="AA239" s="16">
+        <v>214.34</v>
+      </c>
+    </row>
+    <row r="240" ht="18.75" spans="18:27">
+      <c r="R240" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S240" s="16">
+        <v>2.95</v>
+      </c>
+      <c r="T240" s="16">
+        <v>3.72</v>
+      </c>
+      <c r="U240" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V240" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W240" s="16">
+        <v>323.99</v>
+      </c>
+      <c r="X240" s="16">
+        <v>619.42</v>
+      </c>
+      <c r="Y240" s="16">
+        <v>0.64</v>
+      </c>
+      <c r="Z240" s="16">
+        <v>2303.66</v>
+      </c>
+      <c r="AA240" s="16">
+        <v>222.93</v>
+      </c>
+    </row>
+    <row r="241" ht="18.75" spans="18:27">
+      <c r="R241" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S241" s="16">
+        <v>3.28</v>
+      </c>
+      <c r="T241" s="16">
+        <v>4.34</v>
+      </c>
+      <c r="U241" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V241" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W241" s="16">
+        <v>382.09</v>
+      </c>
+      <c r="X241" s="16">
+        <v>649.81</v>
+      </c>
+      <c r="Y241" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="Z241" s="16">
+        <v>2811.14</v>
+      </c>
+      <c r="AA241" s="16">
+        <v>233.18</v>
+      </c>
+    </row>
+    <row r="242" ht="18.75" spans="18:27">
+      <c r="R242" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S242" s="16">
+        <v>2.13</v>
+      </c>
+      <c r="T242" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U242" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V242" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W242" s="16">
+        <v>23.75</v>
+      </c>
+      <c r="X242" s="16">
+        <v>542.18</v>
+      </c>
+      <c r="Y242" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="Z242" s="16">
+        <v>301.27</v>
+      </c>
+      <c r="AA242" s="16">
+        <v>301.27</v>
+      </c>
+    </row>
+    <row r="243" ht="18.75" spans="18:27">
+      <c r="R243" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S243" s="16">
+        <v>2.15</v>
+      </c>
+      <c r="T243" s="16">
+        <v>1.06</v>
+      </c>
+      <c r="U243" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V243" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W243" s="16">
+        <v>74.6</v>
+      </c>
+      <c r="X243" s="16">
+        <v>544.41</v>
+      </c>
+      <c r="Y243" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="Z243" s="16">
+        <v>597</v>
+      </c>
+      <c r="AA243" s="16">
+        <v>292.87</v>
+      </c>
+    </row>
+    <row r="244" ht="18.75" spans="18:27">
+      <c r="R244" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S244" s="16">
+        <v>2.23</v>
+      </c>
+      <c r="T244" s="16">
+        <v>1.61</v>
+      </c>
+      <c r="U244" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V244" s="16">
+        <v>60.01</v>
+      </c>
+      <c r="W244" s="16">
+        <v>125.66</v>
+      </c>
+      <c r="X244" s="16">
+        <v>551.4</v>
+      </c>
+      <c r="Y244" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="Z244" s="16">
+        <v>902.76</v>
+      </c>
+      <c r="AA244" s="16">
+        <v>291.57</v>
+      </c>
+    </row>
+    <row r="245" ht="18.75" spans="18:27">
+      <c r="R245" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S245" s="16">
+        <v>2.35</v>
+      </c>
+      <c r="T245" s="16">
+        <v>2.16</v>
+      </c>
+      <c r="U245" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V245" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W245" s="16">
+        <v>177.38</v>
+      </c>
+      <c r="X245" s="16">
+        <v>563.19</v>
+      </c>
+      <c r="Y245" s="16">
+        <v>0.83</v>
+      </c>
+      <c r="Z245" s="16">
+        <v>1229.09</v>
+      </c>
+      <c r="AA245" s="16">
+        <v>295.89</v>
+      </c>
+    </row>
+    <row r="246" ht="18.75" spans="18:27">
+      <c r="R246" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S246" s="16">
+        <v>2.53</v>
+      </c>
+      <c r="T246" s="16">
+        <v>2.72</v>
+      </c>
+      <c r="U246" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V246" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W246" s="16">
+        <v>230.2</v>
+      </c>
+      <c r="X246" s="16">
+        <v>579.83</v>
+      </c>
+      <c r="Y246" s="16">
+        <v>0.77</v>
+      </c>
+      <c r="Z246" s="16">
+        <v>1587.11</v>
+      </c>
+      <c r="AA246" s="16">
+        <v>303.42</v>
+      </c>
+    </row>
+    <row r="247" ht="18.75" spans="18:27">
+      <c r="R247" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S247" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="T247" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="U247" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V247" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W247" s="16">
+        <v>284.59</v>
+      </c>
+      <c r="X247" s="16">
+        <v>601.42</v>
+      </c>
+      <c r="Y247" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="Z247" s="16">
+        <v>1988.82</v>
+      </c>
+      <c r="AA247" s="16">
+        <v>313.39</v>
+      </c>
+    </row>
+    <row r="248" ht="18.75" spans="18:27">
+      <c r="R248" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S248" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="T248" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="U248" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V248" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W248" s="16">
+        <v>340.99</v>
+      </c>
+      <c r="X248" s="16">
+        <v>628.11</v>
+      </c>
+      <c r="Y248" s="16">
+        <v>0.61</v>
+      </c>
+      <c r="Z248" s="16">
+        <v>2447.57</v>
+      </c>
+      <c r="AA248" s="16">
+        <v>326.34</v>
+      </c>
+    </row>
+    <row r="249" ht="18.75" spans="18:27">
+      <c r="R249" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S249" s="16">
+        <v>3.31</v>
+      </c>
+      <c r="T249" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U249" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V249" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W249" s="16">
+        <v>-6.27</v>
+      </c>
+      <c r="X249" s="16">
+        <v>652.85</v>
+      </c>
+      <c r="Y249" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="Z249" s="16">
+        <v>120.38</v>
+      </c>
+      <c r="AA249" s="16">
+        <v>120.38</v>
+      </c>
+    </row>
+    <row r="250" ht="18.75" spans="18:27">
+      <c r="R250" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S250" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="T250" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="U250" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V250" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W250" s="16">
+        <v>54.97</v>
+      </c>
+      <c r="X250" s="16">
+        <v>652.27</v>
+      </c>
+      <c r="Y250" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="Z250" s="16">
+        <v>546.26</v>
+      </c>
+      <c r="AA250" s="16">
+        <v>128.53</v>
+      </c>
+    </row>
+    <row r="251" ht="18.75" spans="18:27">
+      <c r="R251" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S251" s="16">
+        <v>3.31</v>
+      </c>
+      <c r="T251" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U251" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V251" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W251" s="16">
+        <v>8.74</v>
+      </c>
+      <c r="X251" s="16">
+        <v>652.85</v>
+      </c>
+      <c r="Y251" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="Z251" s="16">
+        <v>224.84</v>
+      </c>
+      <c r="AA251" s="16">
+        <v>224.84</v>
+      </c>
+    </row>
+    <row r="252" ht="18.75" spans="18:27">
+      <c r="R252" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S252" s="16">
+        <v>3.31</v>
+      </c>
+      <c r="T252" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U252" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V252" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W252" s="16">
+        <v>23.75</v>
+      </c>
+      <c r="X252" s="16">
+        <v>652.85</v>
+      </c>
+      <c r="Y252" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="Z252" s="16">
+        <v>329.3</v>
+      </c>
+      <c r="AA252" s="16">
+        <v>329.3</v>
+      </c>
+    </row>
+    <row r="253" ht="18.75" spans="18:27">
+      <c r="R253" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S253" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="T253" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U253" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V253" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W253" s="16">
+        <v>-6.27</v>
+      </c>
+      <c r="X253" s="16">
+        <v>511.23</v>
+      </c>
+      <c r="Y253" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z253" s="16">
+        <v>129.85</v>
+      </c>
+      <c r="AA253" s="16">
+        <v>129.85</v>
+      </c>
+    </row>
+    <row r="254" ht="18.75" spans="18:27">
+      <c r="R254" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S254" s="16">
+        <v>1.79</v>
+      </c>
+      <c r="T254" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="U254" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V254" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W254" s="16">
+        <v>41.68</v>
+      </c>
+      <c r="X254" s="16">
+        <v>510.64</v>
+      </c>
+      <c r="Y254" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z254" s="16">
+        <v>390.94</v>
+      </c>
+      <c r="AA254" s="16">
+        <v>110.12</v>
+      </c>
+    </row>
+    <row r="255" ht="18.75" spans="18:27">
+      <c r="R255" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S255" s="16">
+        <v>1.84</v>
+      </c>
+      <c r="T255" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="U255" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V255" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W255" s="16">
+        <v>89.58</v>
+      </c>
+      <c r="X255" s="16">
+        <v>514.55</v>
+      </c>
+      <c r="Y255" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="Z255" s="16">
+        <v>655.43</v>
+      </c>
+      <c r="AA255" s="16">
+        <v>107.45</v>
+      </c>
+    </row>
+    <row r="256" ht="18.75" spans="18:27">
+      <c r="R256" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S256" s="16">
+        <v>1.92</v>
+      </c>
+      <c r="T256" s="16">
+        <v>1.74</v>
+      </c>
+      <c r="U256" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V256" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W256" s="16">
+        <v>137.84</v>
+      </c>
+      <c r="X256" s="16">
+        <v>522.95</v>
+      </c>
+      <c r="Y256" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="Z256" s="16">
+        <v>932.54</v>
+      </c>
+      <c r="AA256" s="16">
+        <v>107.19</v>
+      </c>
+    </row>
+    <row r="257" ht="18.75" spans="18:27">
+      <c r="R257" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S257" s="16">
+        <v>2.06</v>
+      </c>
+      <c r="T257" s="16">
+        <v>2.26</v>
+      </c>
+      <c r="U257" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V257" s="16">
+        <v>60.02</v>
+      </c>
+      <c r="W257" s="16">
+        <v>186.89</v>
+      </c>
+      <c r="X257" s="16">
+        <v>535.88</v>
+      </c>
+      <c r="Y257" s="16">
+        <v>0.92</v>
+      </c>
+      <c r="Z257" s="16">
+        <v>1231.78</v>
+      </c>
+      <c r="AA257" s="16">
+        <v>109.01</v>
+      </c>
+    </row>
+    <row r="258" ht="18.75" spans="18:27">
+      <c r="R258" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S258" s="16">
+        <v>2.25</v>
+      </c>
+      <c r="T258" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="U258" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V258" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W258" s="16">
+        <v>237.15</v>
+      </c>
+      <c r="X258" s="16">
+        <v>553.41</v>
+      </c>
+      <c r="Y258" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="Z258" s="16">
+        <v>1563.26</v>
+      </c>
+      <c r="AA258" s="16">
+        <v>111.66</v>
+      </c>
+    </row>
+    <row r="259" ht="18.75" spans="18:27">
+      <c r="R259" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S259" s="16">
+        <v>2.49</v>
+      </c>
+      <c r="T259" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="U259" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V259" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W259" s="16">
+        <v>289.05</v>
+      </c>
+      <c r="X259" s="16">
+        <v>575.65</v>
+      </c>
+      <c r="Y259" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="Z259" s="16">
+        <v>1938.07</v>
+      </c>
+      <c r="AA259" s="16">
+        <v>115.71</v>
+      </c>
+    </row>
+    <row r="260" ht="18.75" spans="18:27">
+      <c r="R260" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S260" s="16">
+        <v>2.78</v>
+      </c>
+      <c r="T260" s="16">
+        <v>3.92</v>
+      </c>
+      <c r="U260" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V260" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W260" s="16">
+        <v>343.04</v>
+      </c>
+      <c r="X260" s="16">
+        <v>602.76</v>
+      </c>
+      <c r="Y260" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="Z260" s="16">
+        <v>2368.6</v>
+      </c>
+      <c r="AA260" s="16">
+        <v>120.85</v>
+      </c>
+    </row>
+    <row r="261" ht="18.75" spans="18:27">
+      <c r="R261" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S261" s="16">
+        <v>3.12</v>
+      </c>
+      <c r="T261" s="16">
+        <v>4.53</v>
+      </c>
+      <c r="U261" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="V261" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W261" s="16">
+        <v>399.58</v>
+      </c>
+      <c r="X261" s="16">
+        <v>634.94</v>
+      </c>
+      <c r="Y261" s="16">
+        <v>0.59</v>
+      </c>
+      <c r="Z261" s="16">
+        <v>2869</v>
+      </c>
+      <c r="AA261" s="16">
+        <v>126.67</v>
+      </c>
+    </row>
+    <row r="262" ht="18.75" spans="18:27">
+      <c r="R262" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S262" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="T262" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="U262" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V262" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W262" s="16">
+        <v>8.74</v>
+      </c>
+      <c r="X262" s="16">
+        <v>511.23</v>
+      </c>
+      <c r="Y262" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z262" s="16">
+        <v>211.65</v>
+      </c>
+      <c r="AA262" s="16">
+        <v>211.65</v>
+      </c>
+    </row>
+    <row r="263" ht="18.75" spans="18:27">
+      <c r="R263" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S263" s="16">
+        <v>1.81</v>
+      </c>
+      <c r="T263" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="U263" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V263" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W263" s="16">
+        <v>56.69</v>
+      </c>
+      <c r="X263" s="16">
+        <v>512.05</v>
+      </c>
+      <c r="Y263" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z263" s="16">
+        <v>473.5</v>
+      </c>
+      <c r="AA263" s="16">
+        <v>195.93</v>
+      </c>
+    </row>
+    <row r="264" ht="18.75" spans="18:27">
+      <c r="R264" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S264" s="16">
+        <v>1.87</v>
+      </c>
+      <c r="T264" s="16">
+        <v>1.38</v>
+      </c>
+      <c r="U264" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V264" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W264" s="16">
+        <v>104.71</v>
+      </c>
+      <c r="X264" s="16">
+        <v>517.36</v>
+      </c>
+      <c r="Y264" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="Z264" s="16">
+        <v>741.63</v>
+      </c>
+      <c r="AA264" s="16">
+        <v>193.47</v>
+      </c>
+    </row>
+    <row r="265" ht="18.75" spans="18:27">
+      <c r="R265" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S265" s="16">
+        <v>1.97</v>
+      </c>
+      <c r="T265" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="U265" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V265" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W265" s="16">
+        <v>153.24</v>
+      </c>
+      <c r="X265" s="16">
+        <v>527.18</v>
+      </c>
+      <c r="Y265" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="Z265" s="16">
+        <v>1025.34</v>
+      </c>
+      <c r="AA265" s="16">
+        <v>194.27</v>
+      </c>
+    </row>
+    <row r="266" ht="18.75" spans="18:27">
+      <c r="R266" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S266" s="16">
+        <v>2.12</v>
+      </c>
+      <c r="T266" s="16">
+        <v>2.43</v>
+      </c>
+      <c r="U266" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V266" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W266" s="16">
+        <v>202.68</v>
+      </c>
+      <c r="X266" s="16">
+        <v>541.56</v>
+      </c>
+      <c r="Y266" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="Z266" s="16">
+        <v>1334.33</v>
+      </c>
+      <c r="AA266" s="16">
+        <v>197.68</v>
+      </c>
+    </row>
+    <row r="267" ht="18.75" spans="18:27">
+      <c r="R267" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S267" s="16">
+        <v>2.33</v>
+      </c>
+      <c r="T267" s="16">
+        <v>2.97</v>
+      </c>
+      <c r="U267" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V267" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W267" s="16">
+        <v>253.48</v>
+      </c>
+      <c r="X267" s="16">
+        <v>560.57</v>
+      </c>
+      <c r="Y267" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="Z267" s="16">
+        <v>1678.99</v>
+      </c>
+      <c r="AA267" s="16">
+        <v>203.51</v>
+      </c>
+    </row>
+    <row r="268" ht="18.75" spans="18:27">
+      <c r="R268" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S268" s="16">
+        <v>2.58</v>
+      </c>
+      <c r="T268" s="16">
+        <v>3.53</v>
+      </c>
+      <c r="U268" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V268" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W268" s="16">
+        <v>306.05</v>
+      </c>
+      <c r="X268" s="16">
+        <v>584.34</v>
+      </c>
+      <c r="Y268" s="16">
+        <v>0.76</v>
+      </c>
+      <c r="Z268" s="16">
+        <v>2070.8</v>
+      </c>
+      <c r="AA268" s="16">
+        <v>211.19</v>
+      </c>
+    </row>
+    <row r="269" ht="18.75" spans="18:27">
+      <c r="R269" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S269" s="16">
+        <v>2.89</v>
+      </c>
+      <c r="T269" s="16">
+        <v>4.11</v>
+      </c>
+      <c r="U269" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V269" s="16">
+        <v>60.03</v>
+      </c>
+      <c r="W269" s="16">
+        <v>360.86</v>
+      </c>
+      <c r="X269" s="16">
+        <v>613.05</v>
+      </c>
+      <c r="Y269" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="Z269" s="16">
+        <v>2522.7</v>
+      </c>
+      <c r="AA269" s="16">
+        <v>220.97</v>
+      </c>
+    </row>
+    <row r="270" ht="18.75" spans="18:27">
+      <c r="R270" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S270" s="16">
+        <v>3.25</v>
+      </c>
+      <c r="T270" s="16">
+        <v>4.73</v>
+      </c>
+      <c r="U270" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="V270" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W270" s="16">
+        <v>418.36</v>
+      </c>
+      <c r="X270" s="16">
+        <v>646.89</v>
+      </c>
+      <c r="Y270" s="16">
+        <v>0.55</v>
+      </c>
+      <c r="Z270" s="16">
+        <v>3049.5</v>
+      </c>
+      <c r="AA270" s="16">
+        <v>232.1</v>
+      </c>
+    </row>
+    <row r="271" ht="18.75" spans="18:27">
+      <c r="R271" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S271" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="T271" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="U271" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V271" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W271" s="16">
+        <v>23.74</v>
+      </c>
+      <c r="X271" s="16">
+        <v>511.23</v>
+      </c>
+      <c r="Y271" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z271" s="16">
+        <v>293.46</v>
+      </c>
+      <c r="AA271" s="16">
+        <v>293.46</v>
+      </c>
+    </row>
+    <row r="272" ht="18.75" spans="18:27">
+      <c r="R272" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S272" s="16">
+        <v>1.82</v>
+      </c>
+      <c r="T272" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="U272" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V272" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W272" s="16">
+        <v>71.69</v>
+      </c>
+      <c r="X272" s="16">
+        <v>513.45</v>
+      </c>
+      <c r="Y272" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="Z272" s="16">
+        <v>556.51</v>
+      </c>
+      <c r="AA272" s="16">
+        <v>280.96</v>
+      </c>
+    </row>
+    <row r="273" ht="18.75" spans="18:27">
+      <c r="R273" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S273" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="T273" s="16">
+        <v>1.54</v>
+      </c>
+      <c r="U273" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V273" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W273" s="16">
+        <v>119.85</v>
+      </c>
+      <c r="X273" s="16">
+        <v>520.18</v>
+      </c>
+      <c r="Y273" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="Z273" s="16">
+        <v>828.74</v>
+      </c>
+      <c r="AA273" s="16">
+        <v>279.83</v>
+      </c>
+    </row>
+    <row r="274" ht="18.75" spans="18:27">
+      <c r="R274" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S274" s="16">
+        <v>2.02</v>
+      </c>
+      <c r="T274" s="16">
+        <v>2.06</v>
+      </c>
+      <c r="U274" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V274" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W274" s="16">
+        <v>168.64</v>
+      </c>
+      <c r="X274" s="16">
+        <v>531.42</v>
+      </c>
+      <c r="Y274" s="16">
+        <v>0.93</v>
+      </c>
+      <c r="Z274" s="16">
+        <v>1119.54</v>
+      </c>
+      <c r="AA274" s="16">
+        <v>282.6</v>
+      </c>
+    </row>
+    <row r="275" ht="18.75" spans="18:27">
+      <c r="R275" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S275" s="16">
+        <v>2.18</v>
+      </c>
+      <c r="T275" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="U275" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V275" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W275" s="16">
+        <v>218.48</v>
+      </c>
+      <c r="X275" s="16">
+        <v>547.24</v>
+      </c>
+      <c r="Y275" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="Z275" s="16">
+        <v>1438.79</v>
+      </c>
+      <c r="AA275" s="16">
+        <v>287.76</v>
+      </c>
+    </row>
+    <row r="276" ht="18.75" spans="18:27">
+      <c r="R276" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S276" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="T276" s="16">
+        <v>3.14</v>
+      </c>
+      <c r="U276" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V276" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W276" s="16">
+        <v>269.81</v>
+      </c>
+      <c r="X276" s="16">
+        <v>567.73</v>
+      </c>
+      <c r="Y276" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="Z276" s="16">
+        <v>1797.21</v>
+      </c>
+      <c r="AA276" s="16">
+        <v>297.63</v>
+      </c>
+    </row>
+    <row r="277" ht="18.75" spans="18:27">
+      <c r="R277" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S277" s="16">
+        <v>2.67</v>
+      </c>
+      <c r="T277" s="16">
+        <v>3.71</v>
+      </c>
+      <c r="U277" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V277" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W277" s="16">
+        <v>323.06</v>
+      </c>
+      <c r="X277" s="16">
+        <v>593.03</v>
+      </c>
+      <c r="Y277" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="Z277" s="16">
+        <v>2206.69</v>
+      </c>
+      <c r="AA277" s="16">
+        <v>309.29</v>
+      </c>
+    </row>
+    <row r="278" ht="18.75" spans="18:27">
+      <c r="R278" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S278" s="16">
+        <v>3</v>
+      </c>
+      <c r="T278" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="U278" s="16">
+        <v>0.52</v>
+      </c>
+      <c r="V278" s="16">
+        <v>60.04</v>
+      </c>
+      <c r="W278" s="16">
+        <v>378.68</v>
+      </c>
+      <c r="X278" s="16">
+        <v>623.33</v>
+      </c>
+      <c r="Y278" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="Z278" s="16">
+        <v>2680.71</v>
+      </c>
+      <c r="AA278" s="16">
+        <v>324.18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:N3"/>
     <mergeCell ref="K4:N4"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2514,6 +10817,7 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="R21:R32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
